--- a/Average monthly earnings of employees_ total and by qualification level.xlsx
+++ b/Average monthly earnings of employees_ total and by qualification level.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marig\Desktop\tudo\ISEG\semestre 2\PDS\bases trabalho em grupo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1E3F94-E483-4ED7-9879-C16923F707DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7AA473-3CA0-401A-AB01-FFBC6FC7E9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="210" yWindow="0" windowWidth="20280" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2989,11 +2989,11 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3001,19 +3001,19 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3681,10 +3681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV75"/>
+  <dimension ref="A1:IV63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12881,39 +12881,32 @@
         <v>799.8</v>
       </c>
     </row>
-    <row r="39" spans="1:101" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:101" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:101" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:101" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:101" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:101" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:101" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:101" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:101" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:101" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:101" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:101" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:101" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:101" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="1:256" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="1:256" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:256" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
         <v>46</v>
       </c>
@@ -12933,7 +12926,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
         <v>52</v>
       </c>
@@ -12953,7 +12946,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
         <v>58</v>
       </c>
@@ -12973,7 +12966,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
         <v>64</v>
       </c>
@@ -12993,7 +12986,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
         <v>70</v>
       </c>
@@ -13013,7 +13006,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
         <v>76</v>
       </c>
@@ -13021,10 +13014,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:256" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:256" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:256" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:256" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:256" ht="0.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -13282,13 +13272,12 @@
       <c r="IU60" s="7"/>
       <c r="IV60" s="7"/>
     </row>
-    <row r="61" spans="1:256" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:256" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:256" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
         <v>79</v>
       </c>
@@ -14058,18 +14047,6 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:256" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A3:IV3"/>
@@ -14226,128 +14203,128 @@
       <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="42" t="s">
@@ -14379,141 +14356,141 @@
       <c r="A18" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="1:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
     </row>
     <row r="20" spans="1:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="1:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="1:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" spans="1:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" spans="1:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
     </row>
     <row r="25" spans="1:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="1:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
     </row>
     <row r="27" spans="1:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
@@ -14560,12 +14537,12 @@
       <c r="D32" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="E32" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="42" t="s">
@@ -14597,15 +14574,15 @@
       <c r="A37" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="42" t="s">
@@ -14644,13 +14621,13 @@
       <c r="B42" s="27">
         <v>1998</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
       <c r="H42" s="27" t="s">
         <v>135</v>
       </c>
@@ -14662,13 +14639,13 @@
       <c r="B43" s="28">
         <v>1998</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
       <c r="H43" s="28" t="s">
         <v>135</v>
       </c>
@@ -14680,13 +14657,13 @@
       <c r="B44" s="27">
         <v>1998</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
       <c r="H44" s="27" t="s">
         <v>135</v>
       </c>
@@ -14698,13 +14675,13 @@
       <c r="B45" s="28">
         <v>1998</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
       <c r="H45" s="28" t="s">
         <v>135</v>
       </c>
@@ -14716,13 +14693,13 @@
       <c r="B46" s="27">
         <v>1998</v>
       </c>
-      <c r="C46" s="44" t="s">
+      <c r="C46" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
       <c r="H46" s="27" t="s">
         <v>135</v>
       </c>
@@ -14734,13 +14711,13 @@
       <c r="B47" s="28">
         <v>1998</v>
       </c>
-      <c r="C47" s="45" t="s">
+      <c r="C47" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
       <c r="H47" s="28" t="s">
         <v>144</v>
       </c>
@@ -14752,13 +14729,13 @@
       <c r="B48" s="27">
         <v>1998</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
       <c r="H48" s="27" t="s">
         <v>135</v>
       </c>
@@ -14770,13 +14747,13 @@
       <c r="B49" s="28">
         <v>1998</v>
       </c>
-      <c r="C49" s="45" t="s">
+      <c r="C49" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="28" t="s">
         <v>135</v>
       </c>
@@ -14788,13 +14765,13 @@
       <c r="B50" s="27">
         <v>1998</v>
       </c>
-      <c r="C50" s="44" t="s">
+      <c r="C50" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
       <c r="H50" s="27" t="s">
         <v>144</v>
       </c>
@@ -14806,13 +14783,13 @@
       <c r="B51" s="28">
         <v>1998</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="C51" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
       <c r="H51" s="28" t="s">
         <v>144</v>
       </c>
@@ -14824,13 +14801,13 @@
       <c r="B52" s="27">
         <v>2013</v>
       </c>
-      <c r="C52" s="44" t="s">
+      <c r="C52" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
       <c r="H52" s="27" t="s">
         <v>135</v>
       </c>
@@ -14842,13 +14819,13 @@
       <c r="B53" s="28">
         <v>2013</v>
       </c>
-      <c r="C53" s="45" t="s">
+      <c r="C53" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
       <c r="H53" s="28" t="s">
         <v>135</v>
       </c>
@@ -14860,13 +14837,13 @@
       <c r="B54" s="27">
         <v>2013</v>
       </c>
-      <c r="C54" s="44" t="s">
+      <c r="C54" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
       <c r="H54" s="27" t="s">
         <v>135</v>
       </c>
@@ -14878,13 +14855,13 @@
       <c r="B55" s="28">
         <v>2013</v>
       </c>
-      <c r="C55" s="45" t="s">
+      <c r="C55" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="28" t="s">
         <v>135</v>
       </c>
@@ -14916,6 +14893,41 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
     <mergeCell ref="C52:G52"/>
     <mergeCell ref="C53:G53"/>
     <mergeCell ref="C54:G54"/>
@@ -14925,41 +14937,6 @@
     <mergeCell ref="C49:G49"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -15009,25 +14986,25 @@
       <c r="J3" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="1" t="s">
@@ -15035,4943 +15012,4943 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="E8" s="48"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="29" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48" t="s">
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="E9" s="48"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="29" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="48"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="29" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="E11" s="48"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="29" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="48"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="29" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48" t="s">
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="48"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="29" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48" t="s">
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="48"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="29" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="E15" s="48"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="29" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48" t="s">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="48"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="29" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="E17" s="48"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="29" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48" t="s">
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="E18" s="48"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="29" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="48"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="29" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48" t="s">
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="48"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="29" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48" t="s">
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="48"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="29" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="48"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="29" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48" t="s">
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="48"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="29" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="48"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="29" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48" t="s">
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="48"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="29" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="48"/>
+      <c r="E26" s="46"/>
       <c r="F26" s="29" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48" t="s">
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="48"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="29" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="48"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="29" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48" t="s">
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="48"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="29" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="48"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="29" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48" t="s">
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="48"/>
+      <c r="E31" s="46"/>
       <c r="F31" s="29" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48" t="s">
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="48"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="29" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48" t="s">
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="48"/>
+      <c r="E33" s="46"/>
       <c r="F33" s="29" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48" t="s">
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="48"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="29" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48" t="s">
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="48"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="29" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48" t="s">
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="48"/>
+      <c r="E36" s="46"/>
       <c r="F36" s="29" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48" t="s">
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="48"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="29" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48" t="s">
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="48"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="29" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48" t="s">
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="48"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="29" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48" t="s">
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="48"/>
+      <c r="E40" s="46"/>
       <c r="F40" s="29" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48" t="s">
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="48"/>
+      <c r="E41" s="46"/>
       <c r="F41" s="29" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48" t="s">
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="48"/>
+      <c r="E42" s="46"/>
       <c r="F42" s="29" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48" t="s">
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="48"/>
+      <c r="E43" s="46"/>
       <c r="F43" s="29" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48" t="s">
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="48"/>
+      <c r="E44" s="46"/>
       <c r="F44" s="29" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48" t="s">
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="48"/>
+      <c r="E45" s="46"/>
       <c r="F45" s="29" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48" t="s">
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="48"/>
+      <c r="E46" s="46"/>
       <c r="F46" s="29" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48" t="s">
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="48"/>
+      <c r="E47" s="46"/>
       <c r="F47" s="29" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48" t="s">
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="48"/>
+      <c r="E48" s="46"/>
       <c r="F48" s="29" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="48" t="s">
+      <c r="A49" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48" t="s">
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="48"/>
+      <c r="E49" s="46"/>
       <c r="F49" s="29" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="48" t="s">
+      <c r="A50" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48" t="s">
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="48"/>
+      <c r="E50" s="46"/>
       <c r="F50" s="29" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48" t="s">
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="48"/>
+      <c r="E51" s="46"/>
       <c r="F51" s="29" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48" t="s">
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="48"/>
+      <c r="E52" s="46"/>
       <c r="F52" s="29" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="48" t="s">
+      <c r="A53" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="48"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="46"/>
       <c r="F53" s="29" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="48"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="46"/>
       <c r="F54" s="29" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="48" t="s">
+      <c r="A55" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="48"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="46"/>
       <c r="F55" s="29" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="48" t="s">
+      <c r="A56" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="48"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="46"/>
       <c r="F56" s="29" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="48" t="s">
+      <c r="A57" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="48"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="46"/>
       <c r="F57" s="29" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="48" t="s">
+      <c r="A58" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="48"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="46"/>
       <c r="F58" s="29" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="48"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="46"/>
       <c r="F59" s="29" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="48"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="46"/>
       <c r="F60" s="29" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="48" t="s">
+      <c r="A61" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="48"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="46"/>
       <c r="F61" s="29" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="48" t="s">
+      <c r="A62" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="48"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="46"/>
       <c r="F62" s="29" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="48" t="s">
+      <c r="A63" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" s="48"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="46"/>
       <c r="F63" s="29" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="48" t="s">
+      <c r="A64" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" s="48"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="46"/>
       <c r="F64" s="29" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="48" t="s">
+      <c r="A65" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="B65" s="48"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="48"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="46"/>
       <c r="F65" s="29" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="48" t="s">
+      <c r="A66" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="48"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="46"/>
       <c r="F66" s="29" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="48" t="s">
+      <c r="A67" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="48"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="46"/>
       <c r="F67" s="29" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="48" t="s">
+      <c r="A68" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="48"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="46"/>
       <c r="F68" s="29" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="48" t="s">
+      <c r="A69" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69" s="48"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="46"/>
       <c r="F69" s="29" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="48" t="s">
+      <c r="A70" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70" s="48"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="46"/>
       <c r="F70" s="29" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="48" t="s">
+      <c r="A71" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" s="48"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="46"/>
       <c r="F71" s="29" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="48" t="s">
+      <c r="A72" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="B72" s="48"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72" s="48"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="46"/>
       <c r="F72" s="29" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="48" t="s">
+      <c r="A73" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="B73" s="48"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" s="48"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="46"/>
       <c r="F73" s="29" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="48" t="s">
+      <c r="A74" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="B74" s="48"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E74" s="48"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="46"/>
       <c r="F74" s="29" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="48" t="s">
+      <c r="A75" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="B75" s="48"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E75" s="48"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="46"/>
       <c r="F75" s="29" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="48" t="s">
+      <c r="A76" s="46" t="s">
         <v>291</v>
       </c>
-      <c r="B76" s="48"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E76" s="48"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="46"/>
       <c r="F76" s="29" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="48" t="s">
+      <c r="A77" s="46" t="s">
         <v>293</v>
       </c>
-      <c r="B77" s="48"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E77" s="48"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="46"/>
       <c r="F77" s="29" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="48" t="s">
+      <c r="A78" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="B78" s="48"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="48"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="46"/>
       <c r="F78" s="29" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="48" t="s">
+      <c r="A79" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="B79" s="48"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="48"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="46"/>
       <c r="F79" s="29" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="48" t="s">
+      <c r="A80" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="B80" s="48"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E80" s="48"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="46"/>
       <c r="F80" s="29" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="48" t="s">
+      <c r="A81" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="B81" s="48"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E81" s="48"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="46"/>
       <c r="F81" s="29" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="48" t="s">
+      <c r="A82" s="46" t="s">
         <v>303</v>
       </c>
-      <c r="B82" s="48"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E82" s="48"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" s="46"/>
       <c r="F82" s="29" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="48" t="s">
+      <c r="A83" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="B83" s="48"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E83" s="48"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="46"/>
       <c r="F83" s="29" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="48" t="s">
+      <c r="A84" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="B84" s="48"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E84" s="48"/>
+      <c r="B84" s="46"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="46"/>
       <c r="F84" s="29" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="48" t="s">
+      <c r="A85" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="B85" s="48"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E85" s="48"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="46"/>
       <c r="F85" s="29" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="48" t="s">
+      <c r="A86" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="B86" s="48"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E86" s="48"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="46"/>
       <c r="F86" s="29" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="48" t="s">
+      <c r="A87" s="46" t="s">
         <v>313</v>
       </c>
-      <c r="B87" s="48"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E87" s="48"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="46"/>
       <c r="F87" s="29" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="48" t="s">
+      <c r="A88" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="B88" s="48"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E88" s="48"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="46"/>
+      <c r="D88" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" s="46"/>
       <c r="F88" s="29" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="48" t="s">
+      <c r="A89" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="B89" s="48"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="48"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="46"/>
       <c r="F89" s="29" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="48" t="s">
+      <c r="A90" s="46" t="s">
         <v>319</v>
       </c>
-      <c r="B90" s="48"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="48"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="46"/>
       <c r="F90" s="29" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="48" t="s">
+      <c r="A91" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="B91" s="48"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E91" s="48"/>
+      <c r="B91" s="46"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" s="46"/>
       <c r="F91" s="29" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="48" t="s">
+      <c r="A92" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="B92" s="48"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E92" s="48"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="46"/>
       <c r="F92" s="29" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="48" t="s">
+      <c r="A93" s="46" t="s">
         <v>325</v>
       </c>
-      <c r="B93" s="48"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E93" s="48"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" s="46"/>
       <c r="F93" s="29" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="48" t="s">
+      <c r="A94" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="B94" s="48"/>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E94" s="48"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="46"/>
       <c r="F94" s="29" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="48" t="s">
+      <c r="A95" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="B95" s="48"/>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E95" s="48"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" s="46"/>
       <c r="F95" s="29" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="48" t="s">
+      <c r="A96" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="B96" s="48"/>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E96" s="48"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="46"/>
       <c r="F96" s="29" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="48" t="s">
+      <c r="A97" s="46" t="s">
         <v>333</v>
       </c>
-      <c r="B97" s="48"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E97" s="48"/>
+      <c r="B97" s="46"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="46"/>
       <c r="F97" s="29" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="48" t="s">
+      <c r="A98" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="B98" s="48"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E98" s="48"/>
+      <c r="B98" s="46"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="46"/>
       <c r="F98" s="29" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="48" t="s">
+      <c r="A99" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="B99" s="48"/>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E99" s="48"/>
+      <c r="B99" s="46"/>
+      <c r="C99" s="46"/>
+      <c r="D99" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="46"/>
       <c r="F99" s="29" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="48" t="s">
+      <c r="A100" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="B100" s="48"/>
-      <c r="C100" s="48"/>
-      <c r="D100" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="48"/>
+      <c r="B100" s="46"/>
+      <c r="C100" s="46"/>
+      <c r="D100" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="46"/>
       <c r="F100" s="29" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="48" t="s">
+      <c r="A101" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="B101" s="48"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="48"/>
+      <c r="B101" s="46"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="46"/>
       <c r="F101" s="29" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="48" t="s">
+      <c r="A102" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="B102" s="48"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E102" s="48"/>
+      <c r="B102" s="46"/>
+      <c r="C102" s="46"/>
+      <c r="D102" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="46"/>
       <c r="F102" s="29" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="48" t="s">
+      <c r="A103" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="B103" s="48"/>
-      <c r="C103" s="48"/>
-      <c r="D103" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E103" s="48"/>
+      <c r="B103" s="46"/>
+      <c r="C103" s="46"/>
+      <c r="D103" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="46"/>
       <c r="F103" s="29" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="48" t="s">
+      <c r="A104" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="B104" s="48"/>
-      <c r="C104" s="48"/>
-      <c r="D104" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E104" s="48"/>
+      <c r="B104" s="46"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="46"/>
       <c r="F104" s="29" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="48" t="s">
+      <c r="A105" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="B105" s="48"/>
-      <c r="C105" s="48"/>
-      <c r="D105" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E105" s="48"/>
+      <c r="B105" s="46"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="46"/>
       <c r="F105" s="29" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="48" t="s">
+      <c r="A106" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="B106" s="48"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106" s="48"/>
+      <c r="B106" s="46"/>
+      <c r="C106" s="46"/>
+      <c r="D106" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" s="46"/>
       <c r="F106" s="29" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="48" t="s">
+      <c r="A107" s="46" t="s">
         <v>353</v>
       </c>
-      <c r="B107" s="48"/>
-      <c r="C107" s="48"/>
-      <c r="D107" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E107" s="48"/>
+      <c r="B107" s="46"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="46"/>
       <c r="F107" s="29" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="48" t="s">
+      <c r="A108" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="B108" s="48"/>
-      <c r="C108" s="48"/>
-      <c r="D108" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E108" s="48"/>
+      <c r="B108" s="46"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="46"/>
       <c r="F108" s="29" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="48" t="s">
+      <c r="A109" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="B109" s="48"/>
-      <c r="C109" s="48"/>
-      <c r="D109" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E109" s="48"/>
+      <c r="B109" s="46"/>
+      <c r="C109" s="46"/>
+      <c r="D109" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="46"/>
       <c r="F109" s="29" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="48" t="s">
+      <c r="A110" s="46" t="s">
         <v>359</v>
       </c>
-      <c r="B110" s="48"/>
-      <c r="C110" s="48"/>
-      <c r="D110" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E110" s="48"/>
+      <c r="B110" s="46"/>
+      <c r="C110" s="46"/>
+      <c r="D110" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" s="46"/>
       <c r="F110" s="29" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="48" t="s">
+      <c r="A111" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="B111" s="48"/>
-      <c r="C111" s="48"/>
-      <c r="D111" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="48"/>
+      <c r="B111" s="46"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="46"/>
       <c r="F111" s="29" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="48" t="s">
+      <c r="A112" s="46" t="s">
         <v>363</v>
       </c>
-      <c r="B112" s="48"/>
-      <c r="C112" s="48"/>
-      <c r="D112" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="48"/>
+      <c r="B112" s="46"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="46"/>
       <c r="F112" s="29" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="48" t="s">
+      <c r="A113" s="46" t="s">
         <v>365</v>
       </c>
-      <c r="B113" s="48"/>
-      <c r="C113" s="48"/>
-      <c r="D113" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E113" s="48"/>
+      <c r="B113" s="46"/>
+      <c r="C113" s="46"/>
+      <c r="D113" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" s="46"/>
       <c r="F113" s="29" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="48" t="s">
+      <c r="A114" s="46" t="s">
         <v>367</v>
       </c>
-      <c r="B114" s="48"/>
-      <c r="C114" s="48"/>
-      <c r="D114" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E114" s="48"/>
+      <c r="B114" s="46"/>
+      <c r="C114" s="46"/>
+      <c r="D114" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" s="46"/>
       <c r="F114" s="29" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="48" t="s">
+      <c r="A115" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="B115" s="48"/>
-      <c r="C115" s="48"/>
-      <c r="D115" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E115" s="48"/>
+      <c r="B115" s="46"/>
+      <c r="C115" s="46"/>
+      <c r="D115" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" s="46"/>
       <c r="F115" s="29" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="48" t="s">
+      <c r="A116" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="B116" s="48"/>
-      <c r="C116" s="48"/>
-      <c r="D116" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116" s="48"/>
+      <c r="B116" s="46"/>
+      <c r="C116" s="46"/>
+      <c r="D116" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="46"/>
       <c r="F116" s="29" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="48" t="s">
+      <c r="A117" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="B117" s="48"/>
-      <c r="C117" s="48"/>
-      <c r="D117" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E117" s="48"/>
+      <c r="B117" s="46"/>
+      <c r="C117" s="46"/>
+      <c r="D117" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="46"/>
       <c r="F117" s="29" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="48" t="s">
+      <c r="A118" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="B118" s="48"/>
-      <c r="C118" s="48"/>
-      <c r="D118" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E118" s="48"/>
+      <c r="B118" s="46"/>
+      <c r="C118" s="46"/>
+      <c r="D118" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" s="46"/>
       <c r="F118" s="29" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="48" t="s">
+      <c r="A119" s="46" t="s">
         <v>377</v>
       </c>
-      <c r="B119" s="48"/>
-      <c r="C119" s="48"/>
-      <c r="D119" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E119" s="48"/>
+      <c r="B119" s="46"/>
+      <c r="C119" s="46"/>
+      <c r="D119" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="46"/>
       <c r="F119" s="29" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="48" t="s">
+      <c r="A120" s="46" t="s">
         <v>379</v>
       </c>
-      <c r="B120" s="48"/>
-      <c r="C120" s="48"/>
-      <c r="D120" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E120" s="48"/>
+      <c r="B120" s="46"/>
+      <c r="C120" s="46"/>
+      <c r="D120" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="46"/>
       <c r="F120" s="29" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="48" t="s">
+      <c r="A121" s="46" t="s">
         <v>381</v>
       </c>
-      <c r="B121" s="48"/>
-      <c r="C121" s="48"/>
-      <c r="D121" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E121" s="48"/>
+      <c r="B121" s="46"/>
+      <c r="C121" s="46"/>
+      <c r="D121" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" s="46"/>
       <c r="F121" s="29" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="48" t="s">
+      <c r="A122" s="46" t="s">
         <v>383</v>
       </c>
-      <c r="B122" s="48"/>
-      <c r="C122" s="48"/>
-      <c r="D122" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="48"/>
+      <c r="B122" s="46"/>
+      <c r="C122" s="46"/>
+      <c r="D122" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="46"/>
       <c r="F122" s="29" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="48" t="s">
+      <c r="A123" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="B123" s="48"/>
-      <c r="C123" s="48"/>
-      <c r="D123" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="48"/>
+      <c r="B123" s="46"/>
+      <c r="C123" s="46"/>
+      <c r="D123" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="46"/>
       <c r="F123" s="29" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="48" t="s">
+      <c r="A124" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="B124" s="48"/>
-      <c r="C124" s="48"/>
-      <c r="D124" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E124" s="48"/>
+      <c r="B124" s="46"/>
+      <c r="C124" s="46"/>
+      <c r="D124" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" s="46"/>
       <c r="F124" s="29" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="48" t="s">
+      <c r="A125" s="46" t="s">
         <v>389</v>
       </c>
-      <c r="B125" s="48"/>
-      <c r="C125" s="48"/>
-      <c r="D125" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E125" s="48"/>
+      <c r="B125" s="46"/>
+      <c r="C125" s="46"/>
+      <c r="D125" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125" s="46"/>
       <c r="F125" s="29" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="48" t="s">
+      <c r="A126" s="46" t="s">
         <v>391</v>
       </c>
-      <c r="B126" s="48"/>
-      <c r="C126" s="48"/>
-      <c r="D126" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E126" s="48"/>
+      <c r="B126" s="46"/>
+      <c r="C126" s="46"/>
+      <c r="D126" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" s="46"/>
       <c r="F126" s="29" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="48" t="s">
+      <c r="A127" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="B127" s="48"/>
-      <c r="C127" s="48"/>
-      <c r="D127" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E127" s="48"/>
+      <c r="B127" s="46"/>
+      <c r="C127" s="46"/>
+      <c r="D127" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" s="46"/>
       <c r="F127" s="29" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="48" t="s">
+      <c r="A128" s="46" t="s">
         <v>395</v>
       </c>
-      <c r="B128" s="48"/>
-      <c r="C128" s="48"/>
-      <c r="D128" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128" s="48"/>
+      <c r="B128" s="46"/>
+      <c r="C128" s="46"/>
+      <c r="D128" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="46"/>
       <c r="F128" s="29" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="48" t="s">
+      <c r="A129" s="46" t="s">
         <v>397</v>
       </c>
-      <c r="B129" s="48"/>
-      <c r="C129" s="48"/>
-      <c r="D129" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E129" s="48"/>
+      <c r="B129" s="46"/>
+      <c r="C129" s="46"/>
+      <c r="D129" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" s="46"/>
       <c r="F129" s="29" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="48" t="s">
+      <c r="A130" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="B130" s="48"/>
-      <c r="C130" s="48"/>
-      <c r="D130" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E130" s="48"/>
+      <c r="B130" s="46"/>
+      <c r="C130" s="46"/>
+      <c r="D130" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" s="46"/>
       <c r="F130" s="29" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="48" t="s">
+      <c r="A131" s="46" t="s">
         <v>401</v>
       </c>
-      <c r="B131" s="48"/>
-      <c r="C131" s="48"/>
-      <c r="D131" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E131" s="48"/>
+      <c r="B131" s="46"/>
+      <c r="C131" s="46"/>
+      <c r="D131" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131" s="46"/>
       <c r="F131" s="29" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="48" t="s">
+      <c r="A132" s="46" t="s">
         <v>403</v>
       </c>
-      <c r="B132" s="48"/>
-      <c r="C132" s="48"/>
-      <c r="D132" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E132" s="48"/>
+      <c r="B132" s="46"/>
+      <c r="C132" s="46"/>
+      <c r="D132" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="46"/>
       <c r="F132" s="29" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="48" t="s">
+      <c r="A133" s="46" t="s">
         <v>405</v>
       </c>
-      <c r="B133" s="48"/>
-      <c r="C133" s="48"/>
-      <c r="D133" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="48"/>
+      <c r="B133" s="46"/>
+      <c r="C133" s="46"/>
+      <c r="D133" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="46"/>
       <c r="F133" s="29" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="48" t="s">
+      <c r="A134" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="B134" s="48"/>
-      <c r="C134" s="48"/>
-      <c r="D134" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="48"/>
+      <c r="B134" s="46"/>
+      <c r="C134" s="46"/>
+      <c r="D134" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="46"/>
       <c r="F134" s="29" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="48" t="s">
+      <c r="A135" s="46" t="s">
         <v>409</v>
       </c>
-      <c r="B135" s="48"/>
-      <c r="C135" s="48"/>
-      <c r="D135" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E135" s="48"/>
+      <c r="B135" s="46"/>
+      <c r="C135" s="46"/>
+      <c r="D135" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135" s="46"/>
       <c r="F135" s="29" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="48" t="s">
+      <c r="A136" s="46" t="s">
         <v>411</v>
       </c>
-      <c r="B136" s="48"/>
-      <c r="C136" s="48"/>
-      <c r="D136" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E136" s="48"/>
+      <c r="B136" s="46"/>
+      <c r="C136" s="46"/>
+      <c r="D136" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" s="46"/>
       <c r="F136" s="29" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="48" t="s">
+      <c r="A137" s="46" t="s">
         <v>413</v>
       </c>
-      <c r="B137" s="48"/>
-      <c r="C137" s="48"/>
-      <c r="D137" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E137" s="48"/>
+      <c r="B137" s="46"/>
+      <c r="C137" s="46"/>
+      <c r="D137" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137" s="46"/>
       <c r="F137" s="29" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="48" t="s">
+      <c r="A138" s="46" t="s">
         <v>415</v>
       </c>
-      <c r="B138" s="48"/>
-      <c r="C138" s="48"/>
-      <c r="D138" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E138" s="48"/>
+      <c r="B138" s="46"/>
+      <c r="C138" s="46"/>
+      <c r="D138" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138" s="46"/>
       <c r="F138" s="29" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="48" t="s">
+      <c r="A139" s="46" t="s">
         <v>417</v>
       </c>
-      <c r="B139" s="48"/>
-      <c r="C139" s="48"/>
-      <c r="D139" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E139" s="48"/>
+      <c r="B139" s="46"/>
+      <c r="C139" s="46"/>
+      <c r="D139" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139" s="46"/>
       <c r="F139" s="29" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="48" t="s">
+      <c r="A140" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B140" s="48"/>
-      <c r="C140" s="48"/>
-      <c r="D140" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E140" s="48"/>
+      <c r="B140" s="46"/>
+      <c r="C140" s="46"/>
+      <c r="D140" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" s="46"/>
       <c r="F140" s="29" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="48" t="s">
+      <c r="A141" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B141" s="48"/>
-      <c r="C141" s="48"/>
-      <c r="D141" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E141" s="48"/>
+      <c r="B141" s="46"/>
+      <c r="C141" s="46"/>
+      <c r="D141" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" s="46"/>
       <c r="F141" s="29" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="48" t="s">
+      <c r="A142" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="B142" s="48"/>
-      <c r="C142" s="48"/>
-      <c r="D142" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E142" s="48"/>
+      <c r="B142" s="46"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142" s="46"/>
       <c r="F142" s="29" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="48" t="s">
+      <c r="A143" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B143" s="48"/>
-      <c r="C143" s="48"/>
-      <c r="D143" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E143" s="48"/>
+      <c r="B143" s="46"/>
+      <c r="C143" s="46"/>
+      <c r="D143" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143" s="46"/>
       <c r="F143" s="29" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="48" t="s">
+      <c r="A144" s="46" t="s">
         <v>424</v>
       </c>
-      <c r="B144" s="48"/>
-      <c r="C144" s="48"/>
-      <c r="D144" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="48"/>
+      <c r="B144" s="46"/>
+      <c r="C144" s="46"/>
+      <c r="D144" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="46"/>
       <c r="F144" s="29" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="48" t="s">
+      <c r="A145" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B145" s="48"/>
-      <c r="C145" s="48"/>
-      <c r="D145" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="48"/>
+      <c r="B145" s="46"/>
+      <c r="C145" s="46"/>
+      <c r="D145" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="46"/>
       <c r="F145" s="29" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="48" t="s">
+      <c r="A146" s="46" t="s">
         <v>427</v>
       </c>
-      <c r="B146" s="48"/>
-      <c r="C146" s="48"/>
-      <c r="D146" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E146" s="48"/>
+      <c r="B146" s="46"/>
+      <c r="C146" s="46"/>
+      <c r="D146" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" s="46"/>
       <c r="F146" s="29" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="48" t="s">
+      <c r="A147" s="46" t="s">
         <v>429</v>
       </c>
-      <c r="B147" s="48"/>
-      <c r="C147" s="48"/>
-      <c r="D147" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E147" s="48"/>
+      <c r="B147" s="46"/>
+      <c r="C147" s="46"/>
+      <c r="D147" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" s="46"/>
       <c r="F147" s="29" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="48" t="s">
+      <c r="A148" s="46" t="s">
         <v>431</v>
       </c>
-      <c r="B148" s="48"/>
-      <c r="C148" s="48"/>
-      <c r="D148" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E148" s="48"/>
+      <c r="B148" s="46"/>
+      <c r="C148" s="46"/>
+      <c r="D148" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148" s="46"/>
       <c r="F148" s="29" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="48" t="s">
+      <c r="A149" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B149" s="48"/>
-      <c r="C149" s="48"/>
-      <c r="D149" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E149" s="48"/>
+      <c r="B149" s="46"/>
+      <c r="C149" s="46"/>
+      <c r="D149" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" s="46"/>
       <c r="F149" s="29" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="48" t="s">
+      <c r="A150" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B150" s="48"/>
-      <c r="C150" s="48"/>
-      <c r="D150" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E150" s="48"/>
+      <c r="B150" s="46"/>
+      <c r="C150" s="46"/>
+      <c r="D150" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150" s="46"/>
       <c r="F150" s="29" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="48" t="s">
+      <c r="A151" s="46" t="s">
         <v>435</v>
       </c>
-      <c r="B151" s="48"/>
-      <c r="C151" s="48"/>
-      <c r="D151" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E151" s="48"/>
+      <c r="B151" s="46"/>
+      <c r="C151" s="46"/>
+      <c r="D151" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" s="46"/>
       <c r="F151" s="29" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="48" t="s">
+      <c r="A152" s="46" t="s">
         <v>437</v>
       </c>
-      <c r="B152" s="48"/>
-      <c r="C152" s="48"/>
-      <c r="D152" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E152" s="48"/>
+      <c r="B152" s="46"/>
+      <c r="C152" s="46"/>
+      <c r="D152" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" s="46"/>
       <c r="F152" s="29" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="48" t="s">
+      <c r="A153" s="46" t="s">
         <v>439</v>
       </c>
-      <c r="B153" s="48"/>
-      <c r="C153" s="48"/>
-      <c r="D153" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E153" s="48"/>
+      <c r="B153" s="46"/>
+      <c r="C153" s="46"/>
+      <c r="D153" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153" s="46"/>
       <c r="F153" s="29" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="48" t="s">
+      <c r="A154" s="46" t="s">
         <v>441</v>
       </c>
-      <c r="B154" s="48"/>
-      <c r="C154" s="48"/>
-      <c r="D154" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E154" s="48"/>
+      <c r="B154" s="46"/>
+      <c r="C154" s="46"/>
+      <c r="D154" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" s="46"/>
       <c r="F154" s="29" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="48" t="s">
+      <c r="A155" s="46" t="s">
         <v>443</v>
       </c>
-      <c r="B155" s="48"/>
-      <c r="C155" s="48"/>
-      <c r="D155" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="48"/>
+      <c r="B155" s="46"/>
+      <c r="C155" s="46"/>
+      <c r="D155" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="46"/>
       <c r="F155" s="29" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="48" t="s">
+      <c r="A156" s="46" t="s">
         <v>445</v>
       </c>
-      <c r="B156" s="48"/>
-      <c r="C156" s="48"/>
-      <c r="D156" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="48"/>
+      <c r="B156" s="46"/>
+      <c r="C156" s="46"/>
+      <c r="D156" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="46"/>
       <c r="F156" s="29" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="48" t="s">
+      <c r="A157" s="46" t="s">
         <v>447</v>
       </c>
-      <c r="B157" s="48"/>
-      <c r="C157" s="48"/>
-      <c r="D157" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E157" s="48"/>
+      <c r="B157" s="46"/>
+      <c r="C157" s="46"/>
+      <c r="D157" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157" s="46"/>
       <c r="F157" s="29" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="48" t="s">
+      <c r="A158" s="46" t="s">
         <v>449</v>
       </c>
-      <c r="B158" s="48"/>
-      <c r="C158" s="48"/>
-      <c r="D158" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E158" s="48"/>
+      <c r="B158" s="46"/>
+      <c r="C158" s="46"/>
+      <c r="D158" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158" s="46"/>
       <c r="F158" s="29" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="48" t="s">
+      <c r="A159" s="46" t="s">
         <v>451</v>
       </c>
-      <c r="B159" s="48"/>
-      <c r="C159" s="48"/>
-      <c r="D159" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E159" s="48"/>
+      <c r="B159" s="46"/>
+      <c r="C159" s="46"/>
+      <c r="D159" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159" s="46"/>
       <c r="F159" s="29" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="48" t="s">
+      <c r="A160" s="46" t="s">
         <v>453</v>
       </c>
-      <c r="B160" s="48"/>
-      <c r="C160" s="48"/>
-      <c r="D160" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E160" s="48"/>
+      <c r="B160" s="46"/>
+      <c r="C160" s="46"/>
+      <c r="D160" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160" s="46"/>
       <c r="F160" s="29" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="48" t="s">
+      <c r="A161" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="B161" s="48"/>
-      <c r="C161" s="48"/>
-      <c r="D161" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E161" s="48"/>
+      <c r="B161" s="46"/>
+      <c r="C161" s="46"/>
+      <c r="D161" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E161" s="46"/>
       <c r="F161" s="29" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="48" t="s">
+      <c r="A162" s="46" t="s">
         <v>457</v>
       </c>
-      <c r="B162" s="48"/>
-      <c r="C162" s="48"/>
-      <c r="D162" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E162" s="48"/>
+      <c r="B162" s="46"/>
+      <c r="C162" s="46"/>
+      <c r="D162" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162" s="46"/>
       <c r="F162" s="29" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="48" t="s">
+      <c r="A163" s="46" t="s">
         <v>459</v>
       </c>
-      <c r="B163" s="48"/>
-      <c r="C163" s="48"/>
-      <c r="D163" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E163" s="48"/>
+      <c r="B163" s="46"/>
+      <c r="C163" s="46"/>
+      <c r="D163" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E163" s="46"/>
       <c r="F163" s="29" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="48" t="s">
+      <c r="A164" s="46" t="s">
         <v>461</v>
       </c>
-      <c r="B164" s="48"/>
-      <c r="C164" s="48"/>
-      <c r="D164" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E164" s="48"/>
+      <c r="B164" s="46"/>
+      <c r="C164" s="46"/>
+      <c r="D164" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164" s="46"/>
       <c r="F164" s="29" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="48" t="s">
+      <c r="A165" s="46" t="s">
         <v>463</v>
       </c>
-      <c r="B165" s="48"/>
-      <c r="C165" s="48"/>
-      <c r="D165" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E165" s="48"/>
+      <c r="B165" s="46"/>
+      <c r="C165" s="46"/>
+      <c r="D165" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E165" s="46"/>
       <c r="F165" s="29" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="48" t="s">
+      <c r="A166" s="46" t="s">
         <v>465</v>
       </c>
-      <c r="B166" s="48"/>
-      <c r="C166" s="48"/>
-      <c r="D166" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="48"/>
+      <c r="B166" s="46"/>
+      <c r="C166" s="46"/>
+      <c r="D166" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="46"/>
       <c r="F166" s="29" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="48" t="s">
+      <c r="A167" s="46" t="s">
         <v>467</v>
       </c>
-      <c r="B167" s="48"/>
-      <c r="C167" s="48"/>
-      <c r="D167" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="48"/>
+      <c r="B167" s="46"/>
+      <c r="C167" s="46"/>
+      <c r="D167" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="46"/>
       <c r="F167" s="29" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="48" t="s">
+      <c r="A168" s="46" t="s">
         <v>469</v>
       </c>
-      <c r="B168" s="48"/>
-      <c r="C168" s="48"/>
-      <c r="D168" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E168" s="48"/>
+      <c r="B168" s="46"/>
+      <c r="C168" s="46"/>
+      <c r="D168" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E168" s="46"/>
       <c r="F168" s="29" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="48" t="s">
+      <c r="A169" s="46" t="s">
         <v>471</v>
       </c>
-      <c r="B169" s="48"/>
-      <c r="C169" s="48"/>
-      <c r="D169" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E169" s="48"/>
+      <c r="B169" s="46"/>
+      <c r="C169" s="46"/>
+      <c r="D169" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E169" s="46"/>
       <c r="F169" s="29" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="48" t="s">
+      <c r="A170" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="B170" s="48"/>
-      <c r="C170" s="48"/>
-      <c r="D170" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E170" s="48"/>
+      <c r="B170" s="46"/>
+      <c r="C170" s="46"/>
+      <c r="D170" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E170" s="46"/>
       <c r="F170" s="29" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="48" t="s">
+      <c r="A171" s="46" t="s">
         <v>475</v>
       </c>
-      <c r="B171" s="48"/>
-      <c r="C171" s="48"/>
-      <c r="D171" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E171" s="48"/>
+      <c r="B171" s="46"/>
+      <c r="C171" s="46"/>
+      <c r="D171" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E171" s="46"/>
       <c r="F171" s="29" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="48" t="s">
+      <c r="A172" s="46" t="s">
         <v>477</v>
       </c>
-      <c r="B172" s="48"/>
-      <c r="C172" s="48"/>
-      <c r="D172" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E172" s="48"/>
+      <c r="B172" s="46"/>
+      <c r="C172" s="46"/>
+      <c r="D172" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E172" s="46"/>
       <c r="F172" s="29" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="48" t="s">
+      <c r="A173" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="B173" s="48"/>
-      <c r="C173" s="48"/>
-      <c r="D173" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E173" s="48"/>
+      <c r="B173" s="46"/>
+      <c r="C173" s="46"/>
+      <c r="D173" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E173" s="46"/>
       <c r="F173" s="29" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="48" t="s">
+      <c r="A174" s="46" t="s">
         <v>481</v>
       </c>
-      <c r="B174" s="48"/>
-      <c r="C174" s="48"/>
-      <c r="D174" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E174" s="48"/>
+      <c r="B174" s="46"/>
+      <c r="C174" s="46"/>
+      <c r="D174" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E174" s="46"/>
       <c r="F174" s="29" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="48" t="s">
+      <c r="A175" s="46" t="s">
         <v>483</v>
       </c>
-      <c r="B175" s="48"/>
-      <c r="C175" s="48"/>
-      <c r="D175" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E175" s="48"/>
+      <c r="B175" s="46"/>
+      <c r="C175" s="46"/>
+      <c r="D175" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E175" s="46"/>
       <c r="F175" s="29" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="48" t="s">
+      <c r="A176" s="46" t="s">
         <v>485</v>
       </c>
-      <c r="B176" s="48"/>
-      <c r="C176" s="48"/>
-      <c r="D176" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E176" s="48"/>
+      <c r="B176" s="46"/>
+      <c r="C176" s="46"/>
+      <c r="D176" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E176" s="46"/>
       <c r="F176" s="29" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="48" t="s">
+      <c r="A177" s="46" t="s">
         <v>487</v>
       </c>
-      <c r="B177" s="48"/>
-      <c r="C177" s="48"/>
-      <c r="D177" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="48"/>
+      <c r="B177" s="46"/>
+      <c r="C177" s="46"/>
+      <c r="D177" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="46"/>
       <c r="F177" s="29" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="48" t="s">
+      <c r="A178" s="46" t="s">
         <v>489</v>
       </c>
-      <c r="B178" s="48"/>
-      <c r="C178" s="48"/>
-      <c r="D178" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="48"/>
+      <c r="B178" s="46"/>
+      <c r="C178" s="46"/>
+      <c r="D178" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="46"/>
       <c r="F178" s="29" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="48" t="s">
+      <c r="A179" s="46" t="s">
         <v>491</v>
       </c>
-      <c r="B179" s="48"/>
-      <c r="C179" s="48"/>
-      <c r="D179" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E179" s="48"/>
+      <c r="B179" s="46"/>
+      <c r="C179" s="46"/>
+      <c r="D179" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E179" s="46"/>
       <c r="F179" s="29" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="48" t="s">
+      <c r="A180" s="46" t="s">
         <v>493</v>
       </c>
-      <c r="B180" s="48"/>
-      <c r="C180" s="48"/>
-      <c r="D180" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E180" s="48"/>
+      <c r="B180" s="46"/>
+      <c r="C180" s="46"/>
+      <c r="D180" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E180" s="46"/>
       <c r="F180" s="29" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="48" t="s">
+      <c r="A181" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="B181" s="48"/>
-      <c r="C181" s="48"/>
-      <c r="D181" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E181" s="48"/>
+      <c r="B181" s="46"/>
+      <c r="C181" s="46"/>
+      <c r="D181" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E181" s="46"/>
       <c r="F181" s="29" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="48" t="s">
+      <c r="A182" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="B182" s="48"/>
-      <c r="C182" s="48"/>
-      <c r="D182" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E182" s="48"/>
+      <c r="B182" s="46"/>
+      <c r="C182" s="46"/>
+      <c r="D182" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E182" s="46"/>
       <c r="F182" s="29" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="48" t="s">
+      <c r="A183" s="46" t="s">
         <v>499</v>
       </c>
-      <c r="B183" s="48"/>
-      <c r="C183" s="48"/>
-      <c r="D183" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E183" s="48"/>
+      <c r="B183" s="46"/>
+      <c r="C183" s="46"/>
+      <c r="D183" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E183" s="46"/>
       <c r="F183" s="29" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="48" t="s">
+      <c r="A184" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="B184" s="48"/>
-      <c r="C184" s="48"/>
-      <c r="D184" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E184" s="48"/>
+      <c r="B184" s="46"/>
+      <c r="C184" s="46"/>
+      <c r="D184" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E184" s="46"/>
       <c r="F184" s="29" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="48" t="s">
+      <c r="A185" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="B185" s="48"/>
-      <c r="C185" s="48"/>
-      <c r="D185" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E185" s="48"/>
+      <c r="B185" s="46"/>
+      <c r="C185" s="46"/>
+      <c r="D185" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E185" s="46"/>
       <c r="F185" s="29" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="48" t="s">
+      <c r="A186" s="46" t="s">
         <v>505</v>
       </c>
-      <c r="B186" s="48"/>
-      <c r="C186" s="48"/>
-      <c r="D186" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E186" s="48"/>
+      <c r="B186" s="46"/>
+      <c r="C186" s="46"/>
+      <c r="D186" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E186" s="46"/>
       <c r="F186" s="29" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="48" t="s">
+      <c r="A187" s="46" t="s">
         <v>507</v>
       </c>
-      <c r="B187" s="48"/>
-      <c r="C187" s="48"/>
-      <c r="D187" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E187" s="48"/>
+      <c r="B187" s="46"/>
+      <c r="C187" s="46"/>
+      <c r="D187" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E187" s="46"/>
       <c r="F187" s="29" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="48" t="s">
+      <c r="A188" s="46" t="s">
         <v>509</v>
       </c>
-      <c r="B188" s="48"/>
-      <c r="C188" s="48"/>
-      <c r="D188" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="48"/>
+      <c r="B188" s="46"/>
+      <c r="C188" s="46"/>
+      <c r="D188" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="46"/>
       <c r="F188" s="29" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="48" t="s">
+      <c r="A189" s="46" t="s">
         <v>511</v>
       </c>
-      <c r="B189" s="48"/>
-      <c r="C189" s="48"/>
-      <c r="D189" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="48"/>
+      <c r="B189" s="46"/>
+      <c r="C189" s="46"/>
+      <c r="D189" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="46"/>
       <c r="F189" s="29" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="48" t="s">
+      <c r="A190" s="46" t="s">
         <v>513</v>
       </c>
-      <c r="B190" s="48"/>
-      <c r="C190" s="48"/>
-      <c r="D190" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E190" s="48"/>
+      <c r="B190" s="46"/>
+      <c r="C190" s="46"/>
+      <c r="D190" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E190" s="46"/>
       <c r="F190" s="29" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="48" t="s">
+      <c r="A191" s="46" t="s">
         <v>515</v>
       </c>
-      <c r="B191" s="48"/>
-      <c r="C191" s="48"/>
-      <c r="D191" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E191" s="48"/>
+      <c r="B191" s="46"/>
+      <c r="C191" s="46"/>
+      <c r="D191" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E191" s="46"/>
       <c r="F191" s="29" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="48" t="s">
+      <c r="A192" s="46" t="s">
         <v>517</v>
       </c>
-      <c r="B192" s="48"/>
-      <c r="C192" s="48"/>
-      <c r="D192" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E192" s="48"/>
+      <c r="B192" s="46"/>
+      <c r="C192" s="46"/>
+      <c r="D192" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E192" s="46"/>
       <c r="F192" s="29" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="48" t="s">
+      <c r="A193" s="46" t="s">
         <v>519</v>
       </c>
-      <c r="B193" s="48"/>
-      <c r="C193" s="48"/>
-      <c r="D193" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E193" s="48"/>
+      <c r="B193" s="46"/>
+      <c r="C193" s="46"/>
+      <c r="D193" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E193" s="46"/>
       <c r="F193" s="29" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="48" t="s">
+      <c r="A194" s="46" t="s">
         <v>521</v>
       </c>
-      <c r="B194" s="48"/>
-      <c r="C194" s="48"/>
-      <c r="D194" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E194" s="48"/>
+      <c r="B194" s="46"/>
+      <c r="C194" s="46"/>
+      <c r="D194" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E194" s="46"/>
       <c r="F194" s="29" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="48" t="s">
+      <c r="A195" s="46" t="s">
         <v>523</v>
       </c>
-      <c r="B195" s="48"/>
-      <c r="C195" s="48"/>
-      <c r="D195" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E195" s="48"/>
+      <c r="B195" s="46"/>
+      <c r="C195" s="46"/>
+      <c r="D195" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E195" s="46"/>
       <c r="F195" s="29" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="48" t="s">
+      <c r="A196" s="46" t="s">
         <v>525</v>
       </c>
-      <c r="B196" s="48"/>
-      <c r="C196" s="48"/>
-      <c r="D196" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E196" s="48"/>
+      <c r="B196" s="46"/>
+      <c r="C196" s="46"/>
+      <c r="D196" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E196" s="46"/>
       <c r="F196" s="29" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="48" t="s">
+      <c r="A197" s="46" t="s">
         <v>527</v>
       </c>
-      <c r="B197" s="48"/>
-      <c r="C197" s="48"/>
-      <c r="D197" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E197" s="48"/>
+      <c r="B197" s="46"/>
+      <c r="C197" s="46"/>
+      <c r="D197" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E197" s="46"/>
       <c r="F197" s="29" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="48" t="s">
+      <c r="A198" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="B198" s="48"/>
-      <c r="C198" s="48"/>
-      <c r="D198" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E198" s="48"/>
+      <c r="B198" s="46"/>
+      <c r="C198" s="46"/>
+      <c r="D198" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E198" s="46"/>
       <c r="F198" s="29" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="48" t="s">
+      <c r="A199" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="B199" s="48"/>
-      <c r="C199" s="48"/>
-      <c r="D199" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="48"/>
+      <c r="B199" s="46"/>
+      <c r="C199" s="46"/>
+      <c r="D199" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="46"/>
       <c r="F199" s="29" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="48" t="s">
+      <c r="A200" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="B200" s="48"/>
-      <c r="C200" s="48"/>
-      <c r="D200" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="48"/>
+      <c r="B200" s="46"/>
+      <c r="C200" s="46"/>
+      <c r="D200" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="46"/>
       <c r="F200" s="29" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="48" t="s">
+      <c r="A201" s="46" t="s">
         <v>535</v>
       </c>
-      <c r="B201" s="48"/>
-      <c r="C201" s="48"/>
-      <c r="D201" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E201" s="48"/>
+      <c r="B201" s="46"/>
+      <c r="C201" s="46"/>
+      <c r="D201" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201" s="46"/>
       <c r="F201" s="29" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="48" t="s">
+      <c r="A202" s="46" t="s">
         <v>537</v>
       </c>
-      <c r="B202" s="48"/>
-      <c r="C202" s="48"/>
-      <c r="D202" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E202" s="48"/>
+      <c r="B202" s="46"/>
+      <c r="C202" s="46"/>
+      <c r="D202" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E202" s="46"/>
       <c r="F202" s="29" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="48" t="s">
+      <c r="A203" s="46" t="s">
         <v>539</v>
       </c>
-      <c r="B203" s="48"/>
-      <c r="C203" s="48"/>
-      <c r="D203" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E203" s="48"/>
+      <c r="B203" s="46"/>
+      <c r="C203" s="46"/>
+      <c r="D203" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E203" s="46"/>
       <c r="F203" s="29" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="48" t="s">
+      <c r="A204" s="46" t="s">
         <v>541</v>
       </c>
-      <c r="B204" s="48"/>
-      <c r="C204" s="48"/>
-      <c r="D204" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E204" s="48"/>
+      <c r="B204" s="46"/>
+      <c r="C204" s="46"/>
+      <c r="D204" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E204" s="46"/>
       <c r="F204" s="29" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" s="48" t="s">
+      <c r="A205" s="46" t="s">
         <v>543</v>
       </c>
-      <c r="B205" s="48"/>
-      <c r="C205" s="48"/>
-      <c r="D205" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E205" s="48"/>
+      <c r="B205" s="46"/>
+      <c r="C205" s="46"/>
+      <c r="D205" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E205" s="46"/>
       <c r="F205" s="29" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" s="48" t="s">
+      <c r="A206" s="46" t="s">
         <v>545</v>
       </c>
-      <c r="B206" s="48"/>
-      <c r="C206" s="48"/>
-      <c r="D206" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E206" s="48"/>
+      <c r="B206" s="46"/>
+      <c r="C206" s="46"/>
+      <c r="D206" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E206" s="46"/>
       <c r="F206" s="29" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" s="48" t="s">
+      <c r="A207" s="46" t="s">
         <v>547</v>
       </c>
-      <c r="B207" s="48"/>
-      <c r="C207" s="48"/>
-      <c r="D207" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E207" s="48"/>
+      <c r="B207" s="46"/>
+      <c r="C207" s="46"/>
+      <c r="D207" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E207" s="46"/>
       <c r="F207" s="29" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" s="48" t="s">
+      <c r="A208" s="46" t="s">
         <v>549</v>
       </c>
-      <c r="B208" s="48"/>
-      <c r="C208" s="48"/>
-      <c r="D208" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E208" s="48"/>
+      <c r="B208" s="46"/>
+      <c r="C208" s="46"/>
+      <c r="D208" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E208" s="46"/>
       <c r="F208" s="29" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" s="48" t="s">
+      <c r="A209" s="46" t="s">
         <v>551</v>
       </c>
-      <c r="B209" s="48"/>
-      <c r="C209" s="48"/>
-      <c r="D209" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E209" s="48"/>
+      <c r="B209" s="46"/>
+      <c r="C209" s="46"/>
+      <c r="D209" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E209" s="46"/>
       <c r="F209" s="29" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="48" t="s">
+      <c r="A210" s="46" t="s">
         <v>553</v>
       </c>
-      <c r="B210" s="48"/>
-      <c r="C210" s="48"/>
-      <c r="D210" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="48"/>
+      <c r="B210" s="46"/>
+      <c r="C210" s="46"/>
+      <c r="D210" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="46"/>
       <c r="F210" s="29" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="48" t="s">
+      <c r="A211" s="46" t="s">
         <v>555</v>
       </c>
-      <c r="B211" s="48"/>
-      <c r="C211" s="48"/>
-      <c r="D211" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="48"/>
+      <c r="B211" s="46"/>
+      <c r="C211" s="46"/>
+      <c r="D211" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="46"/>
       <c r="F211" s="29" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="48" t="s">
+      <c r="A212" s="46" t="s">
         <v>557</v>
       </c>
-      <c r="B212" s="48"/>
-      <c r="C212" s="48"/>
-      <c r="D212" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E212" s="48"/>
+      <c r="B212" s="46"/>
+      <c r="C212" s="46"/>
+      <c r="D212" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E212" s="46"/>
       <c r="F212" s="29" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="48" t="s">
+      <c r="A213" s="46" t="s">
         <v>559</v>
       </c>
-      <c r="B213" s="48"/>
-      <c r="C213" s="48"/>
-      <c r="D213" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E213" s="48"/>
+      <c r="B213" s="46"/>
+      <c r="C213" s="46"/>
+      <c r="D213" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E213" s="46"/>
       <c r="F213" s="29" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="48" t="s">
+      <c r="A214" s="46" t="s">
         <v>561</v>
       </c>
-      <c r="B214" s="48"/>
-      <c r="C214" s="48"/>
-      <c r="D214" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E214" s="48"/>
+      <c r="B214" s="46"/>
+      <c r="C214" s="46"/>
+      <c r="D214" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E214" s="46"/>
       <c r="F214" s="29" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" s="48" t="s">
+      <c r="A215" s="46" t="s">
         <v>563</v>
       </c>
-      <c r="B215" s="48"/>
-      <c r="C215" s="48"/>
-      <c r="D215" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E215" s="48"/>
+      <c r="B215" s="46"/>
+      <c r="C215" s="46"/>
+      <c r="D215" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E215" s="46"/>
       <c r="F215" s="29" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" s="48" t="s">
+      <c r="A216" s="46" t="s">
         <v>565</v>
       </c>
-      <c r="B216" s="48"/>
-      <c r="C216" s="48"/>
-      <c r="D216" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E216" s="48"/>
+      <c r="B216" s="46"/>
+      <c r="C216" s="46"/>
+      <c r="D216" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E216" s="46"/>
       <c r="F216" s="29" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="48" t="s">
+      <c r="A217" s="46" t="s">
         <v>567</v>
       </c>
-      <c r="B217" s="48"/>
-      <c r="C217" s="48"/>
-      <c r="D217" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E217" s="48"/>
+      <c r="B217" s="46"/>
+      <c r="C217" s="46"/>
+      <c r="D217" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E217" s="46"/>
       <c r="F217" s="29" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" s="48" t="s">
+      <c r="A218" s="46" t="s">
         <v>569</v>
       </c>
-      <c r="B218" s="48"/>
-      <c r="C218" s="48"/>
-      <c r="D218" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E218" s="48"/>
+      <c r="B218" s="46"/>
+      <c r="C218" s="46"/>
+      <c r="D218" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E218" s="46"/>
       <c r="F218" s="29" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="48" t="s">
+      <c r="A219" s="46" t="s">
         <v>571</v>
       </c>
-      <c r="B219" s="48"/>
-      <c r="C219" s="48"/>
-      <c r="D219" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E219" s="48"/>
+      <c r="B219" s="46"/>
+      <c r="C219" s="46"/>
+      <c r="D219" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E219" s="46"/>
       <c r="F219" s="29" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" s="48" t="s">
+      <c r="A220" s="46" t="s">
         <v>573</v>
       </c>
-      <c r="B220" s="48"/>
-      <c r="C220" s="48"/>
-      <c r="D220" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E220" s="48"/>
+      <c r="B220" s="46"/>
+      <c r="C220" s="46"/>
+      <c r="D220" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E220" s="46"/>
       <c r="F220" s="29" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="48" t="s">
+      <c r="A221" s="46" t="s">
         <v>575</v>
       </c>
-      <c r="B221" s="48"/>
-      <c r="C221" s="48"/>
-      <c r="D221" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="48"/>
+      <c r="B221" s="46"/>
+      <c r="C221" s="46"/>
+      <c r="D221" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="46"/>
       <c r="F221" s="29" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="48" t="s">
+      <c r="A222" s="46" t="s">
         <v>577</v>
       </c>
-      <c r="B222" s="48"/>
-      <c r="C222" s="48"/>
-      <c r="D222" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="48"/>
+      <c r="B222" s="46"/>
+      <c r="C222" s="46"/>
+      <c r="D222" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="46"/>
       <c r="F222" s="29" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="48" t="s">
+      <c r="A223" s="46" t="s">
         <v>579</v>
       </c>
-      <c r="B223" s="48"/>
-      <c r="C223" s="48"/>
-      <c r="D223" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E223" s="48"/>
+      <c r="B223" s="46"/>
+      <c r="C223" s="46"/>
+      <c r="D223" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E223" s="46"/>
       <c r="F223" s="29" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" s="48" t="s">
+      <c r="A224" s="46" t="s">
         <v>581</v>
       </c>
-      <c r="B224" s="48"/>
-      <c r="C224" s="48"/>
-      <c r="D224" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E224" s="48"/>
+      <c r="B224" s="46"/>
+      <c r="C224" s="46"/>
+      <c r="D224" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E224" s="46"/>
       <c r="F224" s="29" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="48" t="s">
+      <c r="A225" s="46" t="s">
         <v>583</v>
       </c>
-      <c r="B225" s="48"/>
-      <c r="C225" s="48"/>
-      <c r="D225" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E225" s="48"/>
+      <c r="B225" s="46"/>
+      <c r="C225" s="46"/>
+      <c r="D225" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E225" s="46"/>
       <c r="F225" s="29" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="48" t="s">
+      <c r="A226" s="46" t="s">
         <v>585</v>
       </c>
-      <c r="B226" s="48"/>
-      <c r="C226" s="48"/>
-      <c r="D226" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E226" s="48"/>
+      <c r="B226" s="46"/>
+      <c r="C226" s="46"/>
+      <c r="D226" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E226" s="46"/>
       <c r="F226" s="29" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227" s="48" t="s">
+      <c r="A227" s="46" t="s">
         <v>587</v>
       </c>
-      <c r="B227" s="48"/>
-      <c r="C227" s="48"/>
-      <c r="D227" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E227" s="48"/>
+      <c r="B227" s="46"/>
+      <c r="C227" s="46"/>
+      <c r="D227" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E227" s="46"/>
       <c r="F227" s="29" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" s="48" t="s">
+      <c r="A228" s="46" t="s">
         <v>589</v>
       </c>
-      <c r="B228" s="48"/>
-      <c r="C228" s="48"/>
-      <c r="D228" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E228" s="48"/>
+      <c r="B228" s="46"/>
+      <c r="C228" s="46"/>
+      <c r="D228" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E228" s="46"/>
       <c r="F228" s="29" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="48" t="s">
+      <c r="A229" s="46" t="s">
         <v>591</v>
       </c>
-      <c r="B229" s="48"/>
-      <c r="C229" s="48"/>
-      <c r="D229" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E229" s="48"/>
+      <c r="B229" s="46"/>
+      <c r="C229" s="46"/>
+      <c r="D229" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E229" s="46"/>
       <c r="F229" s="29" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="48" t="s">
+      <c r="A230" s="46" t="s">
         <v>593</v>
       </c>
-      <c r="B230" s="48"/>
-      <c r="C230" s="48"/>
-      <c r="D230" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E230" s="48"/>
+      <c r="B230" s="46"/>
+      <c r="C230" s="46"/>
+      <c r="D230" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E230" s="46"/>
       <c r="F230" s="29" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" s="48" t="s">
+      <c r="A231" s="46" t="s">
         <v>595</v>
       </c>
-      <c r="B231" s="48"/>
-      <c r="C231" s="48"/>
-      <c r="D231" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E231" s="48"/>
+      <c r="B231" s="46"/>
+      <c r="C231" s="46"/>
+      <c r="D231" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E231" s="46"/>
       <c r="F231" s="29" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="48" t="s">
+      <c r="A232" s="46" t="s">
         <v>597</v>
       </c>
-      <c r="B232" s="48"/>
-      <c r="C232" s="48"/>
-      <c r="D232" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E232" s="48"/>
+      <c r="B232" s="46"/>
+      <c r="C232" s="46"/>
+      <c r="D232" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E232" s="46"/>
       <c r="F232" s="29" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="48" t="s">
+      <c r="A233" s="46" t="s">
         <v>599</v>
       </c>
-      <c r="B233" s="48"/>
-      <c r="C233" s="48"/>
-      <c r="D233" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E233" s="48"/>
+      <c r="B233" s="46"/>
+      <c r="C233" s="46"/>
+      <c r="D233" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E233" s="46"/>
       <c r="F233" s="29" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="48" t="s">
+      <c r="A234" s="46" t="s">
         <v>601</v>
       </c>
-      <c r="B234" s="48"/>
-      <c r="C234" s="48"/>
-      <c r="D234" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E234" s="48"/>
+      <c r="B234" s="46"/>
+      <c r="C234" s="46"/>
+      <c r="D234" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E234" s="46"/>
       <c r="F234" s="29" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="48" t="s">
+      <c r="A235" s="46" t="s">
         <v>603</v>
       </c>
-      <c r="B235" s="48"/>
-      <c r="C235" s="48"/>
-      <c r="D235" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E235" s="48"/>
+      <c r="B235" s="46"/>
+      <c r="C235" s="46"/>
+      <c r="D235" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E235" s="46"/>
       <c r="F235" s="29" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="48" t="s">
+      <c r="A236" s="46" t="s">
         <v>605</v>
       </c>
-      <c r="B236" s="48"/>
-      <c r="C236" s="48"/>
-      <c r="D236" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E236" s="48"/>
+      <c r="B236" s="46"/>
+      <c r="C236" s="46"/>
+      <c r="D236" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E236" s="46"/>
       <c r="F236" s="29" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" s="48" t="s">
+      <c r="A237" s="46" t="s">
         <v>607</v>
       </c>
-      <c r="B237" s="48"/>
-      <c r="C237" s="48"/>
-      <c r="D237" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E237" s="48"/>
+      <c r="B237" s="46"/>
+      <c r="C237" s="46"/>
+      <c r="D237" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E237" s="46"/>
       <c r="F237" s="29" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238" s="48" t="s">
+      <c r="A238" s="46" t="s">
         <v>609</v>
       </c>
-      <c r="B238" s="48"/>
-      <c r="C238" s="48"/>
-      <c r="D238" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E238" s="48"/>
+      <c r="B238" s="46"/>
+      <c r="C238" s="46"/>
+      <c r="D238" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E238" s="46"/>
       <c r="F238" s="29" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" s="48" t="s">
+      <c r="A239" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B239" s="48"/>
-      <c r="C239" s="48"/>
-      <c r="D239" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E239" s="48"/>
+      <c r="B239" s="46"/>
+      <c r="C239" s="46"/>
+      <c r="D239" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E239" s="46"/>
       <c r="F239" s="29" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="48" t="s">
+      <c r="A240" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B240" s="48"/>
-      <c r="C240" s="48"/>
-      <c r="D240" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E240" s="48"/>
+      <c r="B240" s="46"/>
+      <c r="C240" s="46"/>
+      <c r="D240" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E240" s="46"/>
       <c r="F240" s="29" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="48" t="s">
+      <c r="A241" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B241" s="48"/>
-      <c r="C241" s="48"/>
-      <c r="D241" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E241" s="48"/>
+      <c r="B241" s="46"/>
+      <c r="C241" s="46"/>
+      <c r="D241" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E241" s="46"/>
       <c r="F241" s="29" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="48" t="s">
+      <c r="A242" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B242" s="48"/>
-      <c r="C242" s="48"/>
-      <c r="D242" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E242" s="48"/>
+      <c r="B242" s="46"/>
+      <c r="C242" s="46"/>
+      <c r="D242" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E242" s="46"/>
       <c r="F242" s="29" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="48" t="s">
+      <c r="A243" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B243" s="48"/>
-      <c r="C243" s="48"/>
-      <c r="D243" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E243" s="48"/>
+      <c r="B243" s="46"/>
+      <c r="C243" s="46"/>
+      <c r="D243" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E243" s="46"/>
       <c r="F243" s="29" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="48" t="s">
+      <c r="A244" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B244" s="48"/>
-      <c r="C244" s="48"/>
-      <c r="D244" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E244" s="48"/>
+      <c r="B244" s="46"/>
+      <c r="C244" s="46"/>
+      <c r="D244" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E244" s="46"/>
       <c r="F244" s="29" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="48" t="s">
+      <c r="A245" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B245" s="48"/>
-      <c r="C245" s="48"/>
-      <c r="D245" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E245" s="48"/>
+      <c r="B245" s="46"/>
+      <c r="C245" s="46"/>
+      <c r="D245" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E245" s="46"/>
       <c r="F245" s="29" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="48" t="s">
+      <c r="A246" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B246" s="48"/>
-      <c r="C246" s="48"/>
-      <c r="D246" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E246" s="48"/>
+      <c r="B246" s="46"/>
+      <c r="C246" s="46"/>
+      <c r="D246" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E246" s="46"/>
       <c r="F246" s="29" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="48" t="s">
+      <c r="A247" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B247" s="48"/>
-      <c r="C247" s="48"/>
-      <c r="D247" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E247" s="48"/>
+      <c r="B247" s="46"/>
+      <c r="C247" s="46"/>
+      <c r="D247" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E247" s="46"/>
       <c r="F247" s="29" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="48" t="s">
+      <c r="A248" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B248" s="48"/>
-      <c r="C248" s="48"/>
-      <c r="D248" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E248" s="48"/>
+      <c r="B248" s="46"/>
+      <c r="C248" s="46"/>
+      <c r="D248" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E248" s="46"/>
       <c r="F248" s="29" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="48" t="s">
+      <c r="A249" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B249" s="48"/>
-      <c r="C249" s="48"/>
-      <c r="D249" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E249" s="48"/>
+      <c r="B249" s="46"/>
+      <c r="C249" s="46"/>
+      <c r="D249" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E249" s="46"/>
       <c r="F249" s="29" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="48" t="s">
+      <c r="A250" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B250" s="48"/>
-      <c r="C250" s="48"/>
-      <c r="D250" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E250" s="48"/>
+      <c r="B250" s="46"/>
+      <c r="C250" s="46"/>
+      <c r="D250" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E250" s="46"/>
       <c r="F250" s="29" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="48" t="s">
+      <c r="A251" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B251" s="48"/>
-      <c r="C251" s="48"/>
-      <c r="D251" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E251" s="48"/>
+      <c r="B251" s="46"/>
+      <c r="C251" s="46"/>
+      <c r="D251" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E251" s="46"/>
       <c r="F251" s="29" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="48" t="s">
+      <c r="A252" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B252" s="48"/>
-      <c r="C252" s="48"/>
-      <c r="D252" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E252" s="48"/>
+      <c r="B252" s="46"/>
+      <c r="C252" s="46"/>
+      <c r="D252" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E252" s="46"/>
       <c r="F252" s="29" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="48" t="s">
+      <c r="A253" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B253" s="48"/>
-      <c r="C253" s="48"/>
-      <c r="D253" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E253" s="48"/>
+      <c r="B253" s="46"/>
+      <c r="C253" s="46"/>
+      <c r="D253" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E253" s="46"/>
       <c r="F253" s="29" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="48" t="s">
+      <c r="A254" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B254" s="48"/>
-      <c r="C254" s="48"/>
-      <c r="D254" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E254" s="48"/>
+      <c r="B254" s="46"/>
+      <c r="C254" s="46"/>
+      <c r="D254" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E254" s="46"/>
       <c r="F254" s="29" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="48" t="s">
+      <c r="A255" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B255" s="48"/>
-      <c r="C255" s="48"/>
-      <c r="D255" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E255" s="48"/>
+      <c r="B255" s="46"/>
+      <c r="C255" s="46"/>
+      <c r="D255" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E255" s="46"/>
       <c r="F255" s="29" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" s="48" t="s">
+      <c r="A256" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B256" s="48"/>
-      <c r="C256" s="48"/>
-      <c r="D256" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E256" s="48"/>
+      <c r="B256" s="46"/>
+      <c r="C256" s="46"/>
+      <c r="D256" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E256" s="46"/>
       <c r="F256" s="29" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A257" s="48" t="s">
+      <c r="A257" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="B257" s="48"/>
-      <c r="C257" s="48"/>
-      <c r="D257" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E257" s="48"/>
+      <c r="B257" s="46"/>
+      <c r="C257" s="46"/>
+      <c r="D257" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E257" s="46"/>
       <c r="F257" s="29" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A258" s="48" t="s">
+      <c r="A258" s="46" t="s">
         <v>631</v>
       </c>
-      <c r="B258" s="48"/>
-      <c r="C258" s="48"/>
-      <c r="D258" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E258" s="48"/>
+      <c r="B258" s="46"/>
+      <c r="C258" s="46"/>
+      <c r="D258" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E258" s="46"/>
       <c r="F258" s="29" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A259" s="48" t="s">
+      <c r="A259" s="46" t="s">
         <v>633</v>
       </c>
-      <c r="B259" s="48"/>
-      <c r="C259" s="48"/>
-      <c r="D259" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E259" s="48"/>
+      <c r="B259" s="46"/>
+      <c r="C259" s="46"/>
+      <c r="D259" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E259" s="46"/>
       <c r="F259" s="29" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A260" s="48" t="s">
+      <c r="A260" s="46" t="s">
         <v>635</v>
       </c>
-      <c r="B260" s="48"/>
-      <c r="C260" s="48"/>
-      <c r="D260" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E260" s="48"/>
+      <c r="B260" s="46"/>
+      <c r="C260" s="46"/>
+      <c r="D260" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E260" s="46"/>
       <c r="F260" s="29" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261" s="48" t="s">
+      <c r="A261" s="46" t="s">
         <v>637</v>
       </c>
-      <c r="B261" s="48"/>
-      <c r="C261" s="48"/>
-      <c r="D261" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E261" s="48"/>
+      <c r="B261" s="46"/>
+      <c r="C261" s="46"/>
+      <c r="D261" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E261" s="46"/>
       <c r="F261" s="29" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="48" t="s">
+      <c r="A262" s="46" t="s">
         <v>639</v>
       </c>
-      <c r="B262" s="48"/>
-      <c r="C262" s="48"/>
-      <c r="D262" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E262" s="48"/>
+      <c r="B262" s="46"/>
+      <c r="C262" s="46"/>
+      <c r="D262" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E262" s="46"/>
       <c r="F262" s="29" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263" s="48" t="s">
+      <c r="A263" s="46" t="s">
         <v>641</v>
       </c>
-      <c r="B263" s="48"/>
-      <c r="C263" s="48"/>
-      <c r="D263" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E263" s="48"/>
+      <c r="B263" s="46"/>
+      <c r="C263" s="46"/>
+      <c r="D263" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E263" s="46"/>
       <c r="F263" s="29" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A264" s="48" t="s">
+      <c r="A264" s="46" t="s">
         <v>643</v>
       </c>
-      <c r="B264" s="48"/>
-      <c r="C264" s="48"/>
-      <c r="D264" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E264" s="48"/>
+      <c r="B264" s="46"/>
+      <c r="C264" s="46"/>
+      <c r="D264" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E264" s="46"/>
       <c r="F264" s="29" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A265" s="48" t="s">
+      <c r="A265" s="46" t="s">
         <v>645</v>
       </c>
-      <c r="B265" s="48"/>
-      <c r="C265" s="48"/>
-      <c r="D265" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E265" s="48"/>
+      <c r="B265" s="46"/>
+      <c r="C265" s="46"/>
+      <c r="D265" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E265" s="46"/>
       <c r="F265" s="29" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266" s="48" t="s">
+      <c r="A266" s="46" t="s">
         <v>647</v>
       </c>
-      <c r="B266" s="48"/>
-      <c r="C266" s="48"/>
-      <c r="D266" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E266" s="48"/>
+      <c r="B266" s="46"/>
+      <c r="C266" s="46"/>
+      <c r="D266" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E266" s="46"/>
       <c r="F266" s="29" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A267" s="48" t="s">
+      <c r="A267" s="46" t="s">
         <v>649</v>
       </c>
-      <c r="B267" s="48"/>
-      <c r="C267" s="48"/>
-      <c r="D267" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E267" s="48"/>
+      <c r="B267" s="46"/>
+      <c r="C267" s="46"/>
+      <c r="D267" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E267" s="46"/>
       <c r="F267" s="29" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A268" s="48" t="s">
+      <c r="A268" s="46" t="s">
         <v>651</v>
       </c>
-      <c r="B268" s="48"/>
-      <c r="C268" s="48"/>
-      <c r="D268" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E268" s="48"/>
+      <c r="B268" s="46"/>
+      <c r="C268" s="46"/>
+      <c r="D268" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E268" s="46"/>
       <c r="F268" s="29" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A269" s="48" t="s">
+      <c r="A269" s="46" t="s">
         <v>653</v>
       </c>
-      <c r="B269" s="48"/>
-      <c r="C269" s="48"/>
-      <c r="D269" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E269" s="48"/>
+      <c r="B269" s="46"/>
+      <c r="C269" s="46"/>
+      <c r="D269" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E269" s="46"/>
       <c r="F269" s="29" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A270" s="48" t="s">
+      <c r="A270" s="46" t="s">
         <v>655</v>
       </c>
-      <c r="B270" s="48"/>
-      <c r="C270" s="48"/>
-      <c r="D270" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E270" s="48"/>
+      <c r="B270" s="46"/>
+      <c r="C270" s="46"/>
+      <c r="D270" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E270" s="46"/>
       <c r="F270" s="29" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A271" s="48" t="s">
+      <c r="A271" s="46" t="s">
         <v>657</v>
       </c>
-      <c r="B271" s="48"/>
-      <c r="C271" s="48"/>
-      <c r="D271" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E271" s="48"/>
+      <c r="B271" s="46"/>
+      <c r="C271" s="46"/>
+      <c r="D271" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E271" s="46"/>
       <c r="F271" s="29" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A272" s="48" t="s">
+      <c r="A272" s="46" t="s">
         <v>659</v>
       </c>
-      <c r="B272" s="48"/>
-      <c r="C272" s="48"/>
-      <c r="D272" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E272" s="48"/>
+      <c r="B272" s="46"/>
+      <c r="C272" s="46"/>
+      <c r="D272" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E272" s="46"/>
       <c r="F272" s="29" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273" s="48" t="s">
+      <c r="A273" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="B273" s="48"/>
-      <c r="C273" s="48"/>
-      <c r="D273" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E273" s="48"/>
+      <c r="B273" s="46"/>
+      <c r="C273" s="46"/>
+      <c r="D273" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E273" s="46"/>
       <c r="F273" s="29" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A274" s="48" t="s">
+      <c r="A274" s="46" t="s">
         <v>663</v>
       </c>
-      <c r="B274" s="48"/>
-      <c r="C274" s="48"/>
-      <c r="D274" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E274" s="48"/>
+      <c r="B274" s="46"/>
+      <c r="C274" s="46"/>
+      <c r="D274" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E274" s="46"/>
       <c r="F274" s="29" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A275" s="48" t="s">
+      <c r="A275" s="46" t="s">
         <v>665</v>
       </c>
-      <c r="B275" s="48"/>
-      <c r="C275" s="48"/>
-      <c r="D275" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E275" s="48"/>
+      <c r="B275" s="46"/>
+      <c r="C275" s="46"/>
+      <c r="D275" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E275" s="46"/>
       <c r="F275" s="29" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A276" s="48" t="s">
+      <c r="A276" s="46" t="s">
         <v>667</v>
       </c>
-      <c r="B276" s="48"/>
-      <c r="C276" s="48"/>
-      <c r="D276" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E276" s="48"/>
+      <c r="B276" s="46"/>
+      <c r="C276" s="46"/>
+      <c r="D276" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E276" s="46"/>
       <c r="F276" s="29" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A277" s="48" t="s">
+      <c r="A277" s="46" t="s">
         <v>669</v>
       </c>
-      <c r="B277" s="48"/>
-      <c r="C277" s="48"/>
-      <c r="D277" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E277" s="48"/>
+      <c r="B277" s="46"/>
+      <c r="C277" s="46"/>
+      <c r="D277" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E277" s="46"/>
       <c r="F277" s="29" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A278" s="48" t="s">
+      <c r="A278" s="46" t="s">
         <v>671</v>
       </c>
-      <c r="B278" s="48"/>
-      <c r="C278" s="48"/>
-      <c r="D278" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E278" s="48"/>
+      <c r="B278" s="46"/>
+      <c r="C278" s="46"/>
+      <c r="D278" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E278" s="46"/>
       <c r="F278" s="29" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A279" s="48" t="s">
+      <c r="A279" s="46" t="s">
         <v>673</v>
       </c>
-      <c r="B279" s="48"/>
-      <c r="C279" s="48"/>
-      <c r="D279" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E279" s="48"/>
+      <c r="B279" s="46"/>
+      <c r="C279" s="46"/>
+      <c r="D279" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E279" s="46"/>
       <c r="F279" s="29" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A280" s="48" t="s">
+      <c r="A280" s="46" t="s">
         <v>675</v>
       </c>
-      <c r="B280" s="48"/>
-      <c r="C280" s="48"/>
-      <c r="D280" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E280" s="48"/>
+      <c r="B280" s="46"/>
+      <c r="C280" s="46"/>
+      <c r="D280" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E280" s="46"/>
       <c r="F280" s="29" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A281" s="48" t="s">
+      <c r="A281" s="46" t="s">
         <v>677</v>
       </c>
-      <c r="B281" s="48"/>
-      <c r="C281" s="48"/>
-      <c r="D281" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E281" s="48"/>
+      <c r="B281" s="46"/>
+      <c r="C281" s="46"/>
+      <c r="D281" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E281" s="46"/>
       <c r="F281" s="29" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A282" s="48" t="s">
+      <c r="A282" s="46" t="s">
         <v>679</v>
       </c>
-      <c r="B282" s="48"/>
-      <c r="C282" s="48"/>
-      <c r="D282" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E282" s="48"/>
+      <c r="B282" s="46"/>
+      <c r="C282" s="46"/>
+      <c r="D282" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E282" s="46"/>
       <c r="F282" s="29" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A283" s="48" t="s">
+      <c r="A283" s="46" t="s">
         <v>681</v>
       </c>
-      <c r="B283" s="48"/>
-      <c r="C283" s="48"/>
-      <c r="D283" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E283" s="48"/>
+      <c r="B283" s="46"/>
+      <c r="C283" s="46"/>
+      <c r="D283" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E283" s="46"/>
       <c r="F283" s="29" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A284" s="48" t="s">
+      <c r="A284" s="46" t="s">
         <v>683</v>
       </c>
-      <c r="B284" s="48"/>
-      <c r="C284" s="48"/>
-      <c r="D284" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E284" s="48"/>
+      <c r="B284" s="46"/>
+      <c r="C284" s="46"/>
+      <c r="D284" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E284" s="46"/>
       <c r="F284" s="29" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A285" s="48" t="s">
+      <c r="A285" s="46" t="s">
         <v>685</v>
       </c>
-      <c r="B285" s="48"/>
-      <c r="C285" s="48"/>
-      <c r="D285" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E285" s="48"/>
+      <c r="B285" s="46"/>
+      <c r="C285" s="46"/>
+      <c r="D285" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E285" s="46"/>
       <c r="F285" s="29" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A286" s="48" t="s">
+      <c r="A286" s="46" t="s">
         <v>687</v>
       </c>
-      <c r="B286" s="48"/>
-      <c r="C286" s="48"/>
-      <c r="D286" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E286" s="48"/>
+      <c r="B286" s="46"/>
+      <c r="C286" s="46"/>
+      <c r="D286" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E286" s="46"/>
       <c r="F286" s="29" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A287" s="48" t="s">
+      <c r="A287" s="46" t="s">
         <v>689</v>
       </c>
-      <c r="B287" s="48"/>
-      <c r="C287" s="48"/>
-      <c r="D287" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E287" s="48"/>
+      <c r="B287" s="46"/>
+      <c r="C287" s="46"/>
+      <c r="D287" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E287" s="46"/>
       <c r="F287" s="29" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="48" t="s">
+      <c r="A288" s="46" t="s">
         <v>691</v>
       </c>
-      <c r="B288" s="48"/>
-      <c r="C288" s="48"/>
-      <c r="D288" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E288" s="48"/>
+      <c r="B288" s="46"/>
+      <c r="C288" s="46"/>
+      <c r="D288" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E288" s="46"/>
       <c r="F288" s="29" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A289" s="48" t="s">
+      <c r="A289" s="46" t="s">
         <v>693</v>
       </c>
-      <c r="B289" s="48"/>
-      <c r="C289" s="48"/>
-      <c r="D289" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E289" s="48"/>
+      <c r="B289" s="46"/>
+      <c r="C289" s="46"/>
+      <c r="D289" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E289" s="46"/>
       <c r="F289" s="29" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A290" s="48" t="s">
+      <c r="A290" s="46" t="s">
         <v>695</v>
       </c>
-      <c r="B290" s="48"/>
-      <c r="C290" s="48"/>
-      <c r="D290" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E290" s="48"/>
+      <c r="B290" s="46"/>
+      <c r="C290" s="46"/>
+      <c r="D290" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E290" s="46"/>
       <c r="F290" s="29" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A291" s="48" t="s">
+      <c r="A291" s="46" t="s">
         <v>697</v>
       </c>
-      <c r="B291" s="48"/>
-      <c r="C291" s="48"/>
-      <c r="D291" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E291" s="48"/>
+      <c r="B291" s="46"/>
+      <c r="C291" s="46"/>
+      <c r="D291" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E291" s="46"/>
       <c r="F291" s="29" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A292" s="48" t="s">
+      <c r="A292" s="46" t="s">
         <v>699</v>
       </c>
-      <c r="B292" s="48"/>
-      <c r="C292" s="48"/>
-      <c r="D292" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E292" s="48"/>
+      <c r="B292" s="46"/>
+      <c r="C292" s="46"/>
+      <c r="D292" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E292" s="46"/>
       <c r="F292" s="29" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A293" s="48" t="s">
+      <c r="A293" s="46" t="s">
         <v>701</v>
       </c>
-      <c r="B293" s="48"/>
-      <c r="C293" s="48"/>
-      <c r="D293" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E293" s="48"/>
+      <c r="B293" s="46"/>
+      <c r="C293" s="46"/>
+      <c r="D293" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E293" s="46"/>
       <c r="F293" s="29" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A294" s="48" t="s">
+      <c r="A294" s="46" t="s">
         <v>703</v>
       </c>
-      <c r="B294" s="48"/>
-      <c r="C294" s="48"/>
-      <c r="D294" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E294" s="48"/>
+      <c r="B294" s="46"/>
+      <c r="C294" s="46"/>
+      <c r="D294" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E294" s="46"/>
       <c r="F294" s="29" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A295" s="48" t="s">
+      <c r="A295" s="46" t="s">
         <v>705</v>
       </c>
-      <c r="B295" s="48"/>
-      <c r="C295" s="48"/>
-      <c r="D295" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E295" s="48"/>
+      <c r="B295" s="46"/>
+      <c r="C295" s="46"/>
+      <c r="D295" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E295" s="46"/>
       <c r="F295" s="29" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A296" s="48" t="s">
+      <c r="A296" s="46" t="s">
         <v>707</v>
       </c>
-      <c r="B296" s="48"/>
-      <c r="C296" s="48"/>
-      <c r="D296" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E296" s="48"/>
+      <c r="B296" s="46"/>
+      <c r="C296" s="46"/>
+      <c r="D296" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E296" s="46"/>
       <c r="F296" s="29" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A297" s="48" t="s">
+      <c r="A297" s="46" t="s">
         <v>709</v>
       </c>
-      <c r="B297" s="48"/>
-      <c r="C297" s="48"/>
-      <c r="D297" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E297" s="48"/>
+      <c r="B297" s="46"/>
+      <c r="C297" s="46"/>
+      <c r="D297" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E297" s="46"/>
       <c r="F297" s="29" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A298" s="48" t="s">
+      <c r="A298" s="46" t="s">
         <v>711</v>
       </c>
-      <c r="B298" s="48"/>
-      <c r="C298" s="48"/>
-      <c r="D298" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E298" s="48"/>
+      <c r="B298" s="46"/>
+      <c r="C298" s="46"/>
+      <c r="D298" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E298" s="46"/>
       <c r="F298" s="29" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A299" s="48" t="s">
+      <c r="A299" s="46" t="s">
         <v>713</v>
       </c>
-      <c r="B299" s="48"/>
-      <c r="C299" s="48"/>
-      <c r="D299" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E299" s="48"/>
+      <c r="B299" s="46"/>
+      <c r="C299" s="46"/>
+      <c r="D299" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E299" s="46"/>
       <c r="F299" s="29" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A300" s="48" t="s">
+      <c r="A300" s="46" t="s">
         <v>715</v>
       </c>
-      <c r="B300" s="48"/>
-      <c r="C300" s="48"/>
-      <c r="D300" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E300" s="48"/>
+      <c r="B300" s="46"/>
+      <c r="C300" s="46"/>
+      <c r="D300" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E300" s="46"/>
       <c r="F300" s="29" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" s="48" t="s">
+      <c r="A301" s="46" t="s">
         <v>717</v>
       </c>
-      <c r="B301" s="48"/>
-      <c r="C301" s="48"/>
-      <c r="D301" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E301" s="48"/>
+      <c r="B301" s="46"/>
+      <c r="C301" s="46"/>
+      <c r="D301" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E301" s="46"/>
       <c r="F301" s="29" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A302" s="48" t="s">
+      <c r="A302" s="46" t="s">
         <v>719</v>
       </c>
-      <c r="B302" s="48"/>
-      <c r="C302" s="48"/>
-      <c r="D302" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E302" s="48"/>
+      <c r="B302" s="46"/>
+      <c r="C302" s="46"/>
+      <c r="D302" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E302" s="46"/>
       <c r="F302" s="29" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A303" s="48" t="s">
+      <c r="A303" s="46" t="s">
         <v>721</v>
       </c>
-      <c r="B303" s="48"/>
-      <c r="C303" s="48"/>
-      <c r="D303" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E303" s="48"/>
+      <c r="B303" s="46"/>
+      <c r="C303" s="46"/>
+      <c r="D303" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E303" s="46"/>
       <c r="F303" s="29" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A304" s="48" t="s">
+      <c r="A304" s="46" t="s">
         <v>723</v>
       </c>
-      <c r="B304" s="48"/>
-      <c r="C304" s="48"/>
-      <c r="D304" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E304" s="48"/>
+      <c r="B304" s="46"/>
+      <c r="C304" s="46"/>
+      <c r="D304" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E304" s="46"/>
       <c r="F304" s="29" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A305" s="48" t="s">
+      <c r="A305" s="46" t="s">
         <v>725</v>
       </c>
-      <c r="B305" s="48"/>
-      <c r="C305" s="48"/>
-      <c r="D305" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E305" s="48"/>
+      <c r="B305" s="46"/>
+      <c r="C305" s="46"/>
+      <c r="D305" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E305" s="46"/>
       <c r="F305" s="29" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A306" s="48" t="s">
+      <c r="A306" s="46" t="s">
         <v>727</v>
       </c>
-      <c r="B306" s="48"/>
-      <c r="C306" s="48"/>
-      <c r="D306" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E306" s="48"/>
+      <c r="B306" s="46"/>
+      <c r="C306" s="46"/>
+      <c r="D306" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E306" s="46"/>
       <c r="F306" s="29" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A307" s="48" t="s">
+      <c r="A307" s="46" t="s">
         <v>729</v>
       </c>
-      <c r="B307" s="48"/>
-      <c r="C307" s="48"/>
-      <c r="D307" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E307" s="48"/>
+      <c r="B307" s="46"/>
+      <c r="C307" s="46"/>
+      <c r="D307" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E307" s="46"/>
       <c r="F307" s="29" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A308" s="48" t="s">
+      <c r="A308" s="46" t="s">
         <v>731</v>
       </c>
-      <c r="B308" s="48"/>
-      <c r="C308" s="48"/>
-      <c r="D308" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E308" s="48"/>
+      <c r="B308" s="46"/>
+      <c r="C308" s="46"/>
+      <c r="D308" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E308" s="46"/>
       <c r="F308" s="29" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A309" s="48" t="s">
+      <c r="A309" s="46" t="s">
         <v>733</v>
       </c>
-      <c r="B309" s="48"/>
-      <c r="C309" s="48"/>
-      <c r="D309" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E309" s="48"/>
+      <c r="B309" s="46"/>
+      <c r="C309" s="46"/>
+      <c r="D309" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E309" s="46"/>
       <c r="F309" s="29" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A310" s="48" t="s">
+      <c r="A310" s="46" t="s">
         <v>735</v>
       </c>
-      <c r="B310" s="48"/>
-      <c r="C310" s="48"/>
-      <c r="D310" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E310" s="48"/>
+      <c r="B310" s="46"/>
+      <c r="C310" s="46"/>
+      <c r="D310" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E310" s="46"/>
       <c r="F310" s="29" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A311" s="48" t="s">
+      <c r="A311" s="46" t="s">
         <v>737</v>
       </c>
-      <c r="B311" s="48"/>
-      <c r="C311" s="48"/>
-      <c r="D311" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E311" s="48"/>
+      <c r="B311" s="46"/>
+      <c r="C311" s="46"/>
+      <c r="D311" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E311" s="46"/>
       <c r="F311" s="29" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A312" s="48" t="s">
+      <c r="A312" s="46" t="s">
         <v>739</v>
       </c>
-      <c r="B312" s="48"/>
-      <c r="C312" s="48"/>
-      <c r="D312" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E312" s="48"/>
+      <c r="B312" s="46"/>
+      <c r="C312" s="46"/>
+      <c r="D312" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E312" s="46"/>
       <c r="F312" s="29" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A313" s="48" t="s">
+      <c r="A313" s="46" t="s">
         <v>741</v>
       </c>
-      <c r="B313" s="48"/>
-      <c r="C313" s="48"/>
-      <c r="D313" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E313" s="48"/>
+      <c r="B313" s="46"/>
+      <c r="C313" s="46"/>
+      <c r="D313" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E313" s="46"/>
       <c r="F313" s="29" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A314" s="48" t="s">
+      <c r="A314" s="46" t="s">
         <v>743</v>
       </c>
-      <c r="B314" s="48"/>
-      <c r="C314" s="48"/>
-      <c r="D314" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E314" s="48"/>
+      <c r="B314" s="46"/>
+      <c r="C314" s="46"/>
+      <c r="D314" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E314" s="46"/>
       <c r="F314" s="29" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A315" s="48" t="s">
+      <c r="A315" s="46" t="s">
         <v>745</v>
       </c>
-      <c r="B315" s="48"/>
-      <c r="C315" s="48"/>
-      <c r="D315" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E315" s="48"/>
+      <c r="B315" s="46"/>
+      <c r="C315" s="46"/>
+      <c r="D315" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E315" s="46"/>
       <c r="F315" s="29" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A316" s="48" t="s">
+      <c r="A316" s="46" t="s">
         <v>747</v>
       </c>
-      <c r="B316" s="48"/>
-      <c r="C316" s="48"/>
-      <c r="D316" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E316" s="48"/>
+      <c r="B316" s="46"/>
+      <c r="C316" s="46"/>
+      <c r="D316" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E316" s="46"/>
       <c r="F316" s="29" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A317" s="48" t="s">
+      <c r="A317" s="46" t="s">
         <v>749</v>
       </c>
-      <c r="B317" s="48"/>
-      <c r="C317" s="48"/>
-      <c r="D317" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E317" s="48"/>
+      <c r="B317" s="46"/>
+      <c r="C317" s="46"/>
+      <c r="D317" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E317" s="46"/>
       <c r="F317" s="29" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A318" s="48" t="s">
+      <c r="A318" s="46" t="s">
         <v>751</v>
       </c>
-      <c r="B318" s="48"/>
-      <c r="C318" s="48"/>
-      <c r="D318" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E318" s="48"/>
+      <c r="B318" s="46"/>
+      <c r="C318" s="46"/>
+      <c r="D318" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E318" s="46"/>
       <c r="F318" s="29" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A319" s="48" t="s">
+      <c r="A319" s="46" t="s">
         <v>753</v>
       </c>
-      <c r="B319" s="48"/>
-      <c r="C319" s="48"/>
-      <c r="D319" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E319" s="48"/>
+      <c r="B319" s="46"/>
+      <c r="C319" s="46"/>
+      <c r="D319" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E319" s="46"/>
       <c r="F319" s="29" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A320" s="48" t="s">
+      <c r="A320" s="46" t="s">
         <v>755</v>
       </c>
-      <c r="B320" s="48"/>
-      <c r="C320" s="48"/>
-      <c r="D320" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E320" s="48"/>
+      <c r="B320" s="46"/>
+      <c r="C320" s="46"/>
+      <c r="D320" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E320" s="46"/>
       <c r="F320" s="29" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A321" s="48" t="s">
+      <c r="A321" s="46" t="s">
         <v>757</v>
       </c>
-      <c r="B321" s="48"/>
-      <c r="C321" s="48"/>
-      <c r="D321" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E321" s="48"/>
+      <c r="B321" s="46"/>
+      <c r="C321" s="46"/>
+      <c r="D321" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E321" s="46"/>
       <c r="F321" s="29" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A322" s="48" t="s">
+      <c r="A322" s="46" t="s">
         <v>759</v>
       </c>
-      <c r="B322" s="48"/>
-      <c r="C322" s="48"/>
-      <c r="D322" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E322" s="48"/>
+      <c r="B322" s="46"/>
+      <c r="C322" s="46"/>
+      <c r="D322" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E322" s="46"/>
       <c r="F322" s="29" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A323" s="48" t="s">
+      <c r="A323" s="46" t="s">
         <v>761</v>
       </c>
-      <c r="B323" s="48"/>
-      <c r="C323" s="48"/>
-      <c r="D323" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E323" s="48"/>
+      <c r="B323" s="46"/>
+      <c r="C323" s="46"/>
+      <c r="D323" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E323" s="46"/>
       <c r="F323" s="29" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A324" s="48" t="s">
+      <c r="A324" s="46" t="s">
         <v>763</v>
       </c>
-      <c r="B324" s="48"/>
-      <c r="C324" s="48"/>
-      <c r="D324" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E324" s="48"/>
+      <c r="B324" s="46"/>
+      <c r="C324" s="46"/>
+      <c r="D324" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E324" s="46"/>
       <c r="F324" s="29" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A325" s="48" t="s">
+      <c r="A325" s="46" t="s">
         <v>765</v>
       </c>
-      <c r="B325" s="48"/>
-      <c r="C325" s="48"/>
-      <c r="D325" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E325" s="48"/>
+      <c r="B325" s="46"/>
+      <c r="C325" s="46"/>
+      <c r="D325" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E325" s="46"/>
       <c r="F325" s="29" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A326" s="48" t="s">
+      <c r="A326" s="46" t="s">
         <v>767</v>
       </c>
-      <c r="B326" s="48"/>
-      <c r="C326" s="48"/>
-      <c r="D326" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E326" s="48"/>
+      <c r="B326" s="46"/>
+      <c r="C326" s="46"/>
+      <c r="D326" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E326" s="46"/>
       <c r="F326" s="29" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A327" s="48" t="s">
+      <c r="A327" s="46" t="s">
         <v>769</v>
       </c>
-      <c r="B327" s="48"/>
-      <c r="C327" s="48"/>
-      <c r="D327" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E327" s="48"/>
+      <c r="B327" s="46"/>
+      <c r="C327" s="46"/>
+      <c r="D327" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E327" s="46"/>
       <c r="F327" s="29" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A328" s="48" t="s">
+      <c r="A328" s="46" t="s">
         <v>771</v>
       </c>
-      <c r="B328" s="48"/>
-      <c r="C328" s="48"/>
-      <c r="D328" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E328" s="48"/>
+      <c r="B328" s="46"/>
+      <c r="C328" s="46"/>
+      <c r="D328" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E328" s="46"/>
       <c r="F328" s="29" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A329" s="48" t="s">
+      <c r="A329" s="46" t="s">
         <v>773</v>
       </c>
-      <c r="B329" s="48"/>
-      <c r="C329" s="48"/>
-      <c r="D329" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E329" s="48"/>
+      <c r="B329" s="46"/>
+      <c r="C329" s="46"/>
+      <c r="D329" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E329" s="46"/>
       <c r="F329" s="29" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330" s="48" t="s">
+      <c r="A330" s="46" t="s">
         <v>775</v>
       </c>
-      <c r="B330" s="48"/>
-      <c r="C330" s="48"/>
-      <c r="D330" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E330" s="48"/>
+      <c r="B330" s="46"/>
+      <c r="C330" s="46"/>
+      <c r="D330" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E330" s="46"/>
       <c r="F330" s="29" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A331" s="48" t="s">
+      <c r="A331" s="46" t="s">
         <v>777</v>
       </c>
-      <c r="B331" s="48"/>
-      <c r="C331" s="48"/>
-      <c r="D331" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E331" s="48"/>
+      <c r="B331" s="46"/>
+      <c r="C331" s="46"/>
+      <c r="D331" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E331" s="46"/>
       <c r="F331" s="29" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A332" s="48" t="s">
+      <c r="A332" s="46" t="s">
         <v>779</v>
       </c>
-      <c r="B332" s="48"/>
-      <c r="C332" s="48"/>
-      <c r="D332" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E332" s="48"/>
+      <c r="B332" s="46"/>
+      <c r="C332" s="46"/>
+      <c r="D332" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E332" s="46"/>
       <c r="F332" s="29" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A333" s="48" t="s">
+      <c r="A333" s="46" t="s">
         <v>781</v>
       </c>
-      <c r="B333" s="48"/>
-      <c r="C333" s="48"/>
-      <c r="D333" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E333" s="48"/>
+      <c r="B333" s="46"/>
+      <c r="C333" s="46"/>
+      <c r="D333" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E333" s="46"/>
       <c r="F333" s="29" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A334" s="48" t="s">
+      <c r="A334" s="46" t="s">
         <v>783</v>
       </c>
-      <c r="B334" s="48"/>
-      <c r="C334" s="48"/>
-      <c r="D334" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E334" s="48"/>
+      <c r="B334" s="46"/>
+      <c r="C334" s="46"/>
+      <c r="D334" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E334" s="46"/>
       <c r="F334" s="29" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A335" s="48" t="s">
+      <c r="A335" s="46" t="s">
         <v>785</v>
       </c>
-      <c r="B335" s="48"/>
-      <c r="C335" s="48"/>
-      <c r="D335" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E335" s="48"/>
+      <c r="B335" s="46"/>
+      <c r="C335" s="46"/>
+      <c r="D335" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E335" s="46"/>
       <c r="F335" s="29" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A336" s="48" t="s">
+      <c r="A336" s="46" t="s">
         <v>787</v>
       </c>
-      <c r="B336" s="48"/>
-      <c r="C336" s="48"/>
-      <c r="D336" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E336" s="48"/>
+      <c r="B336" s="46"/>
+      <c r="C336" s="46"/>
+      <c r="D336" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E336" s="46"/>
       <c r="F336" s="29" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A337" s="48" t="s">
+      <c r="A337" s="46" t="s">
         <v>789</v>
       </c>
-      <c r="B337" s="48"/>
-      <c r="C337" s="48"/>
-      <c r="D337" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E337" s="48"/>
+      <c r="B337" s="46"/>
+      <c r="C337" s="46"/>
+      <c r="D337" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E337" s="46"/>
       <c r="F337" s="29" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A338" s="48" t="s">
+      <c r="A338" s="46" t="s">
         <v>791</v>
       </c>
-      <c r="B338" s="48"/>
-      <c r="C338" s="48"/>
-      <c r="D338" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E338" s="48"/>
+      <c r="B338" s="46"/>
+      <c r="C338" s="46"/>
+      <c r="D338" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E338" s="46"/>
       <c r="F338" s="29" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A339" s="48" t="s">
+      <c r="A339" s="46" t="s">
         <v>793</v>
       </c>
-      <c r="B339" s="48"/>
-      <c r="C339" s="48"/>
-      <c r="D339" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E339" s="48"/>
+      <c r="B339" s="46"/>
+      <c r="C339" s="46"/>
+      <c r="D339" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E339" s="46"/>
       <c r="F339" s="29" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A340" s="48" t="s">
+      <c r="A340" s="46" t="s">
         <v>795</v>
       </c>
-      <c r="B340" s="48"/>
-      <c r="C340" s="48"/>
-      <c r="D340" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E340" s="48"/>
+      <c r="B340" s="46"/>
+      <c r="C340" s="46"/>
+      <c r="D340" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E340" s="46"/>
       <c r="F340" s="29" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A341" s="48" t="s">
+      <c r="A341" s="46" t="s">
         <v>797</v>
       </c>
-      <c r="B341" s="48"/>
-      <c r="C341" s="48"/>
-      <c r="D341" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E341" s="48"/>
+      <c r="B341" s="46"/>
+      <c r="C341" s="46"/>
+      <c r="D341" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E341" s="46"/>
       <c r="F341" s="29" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A342" s="48" t="s">
+      <c r="A342" s="46" t="s">
         <v>799</v>
       </c>
-      <c r="B342" s="48"/>
-      <c r="C342" s="48"/>
-      <c r="D342" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E342" s="48"/>
+      <c r="B342" s="46"/>
+      <c r="C342" s="46"/>
+      <c r="D342" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E342" s="46"/>
       <c r="F342" s="29" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A343" s="48" t="s">
+      <c r="A343" s="46" t="s">
         <v>801</v>
       </c>
-      <c r="B343" s="48"/>
-      <c r="C343" s="48"/>
-      <c r="D343" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E343" s="48"/>
+      <c r="B343" s="46"/>
+      <c r="C343" s="46"/>
+      <c r="D343" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E343" s="46"/>
       <c r="F343" s="29" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A344" s="48" t="s">
+      <c r="A344" s="46" t="s">
         <v>803</v>
       </c>
-      <c r="B344" s="48"/>
-      <c r="C344" s="48"/>
-      <c r="D344" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E344" s="48"/>
+      <c r="B344" s="46"/>
+      <c r="C344" s="46"/>
+      <c r="D344" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E344" s="46"/>
       <c r="F344" s="29" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A345" s="48" t="s">
+      <c r="A345" s="46" t="s">
         <v>805</v>
       </c>
-      <c r="B345" s="48"/>
-      <c r="C345" s="48"/>
-      <c r="D345" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E345" s="48"/>
+      <c r="B345" s="46"/>
+      <c r="C345" s="46"/>
+      <c r="D345" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E345" s="46"/>
       <c r="F345" s="29" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A346" s="48" t="s">
+      <c r="A346" s="46" t="s">
         <v>807</v>
       </c>
-      <c r="B346" s="48"/>
-      <c r="C346" s="48"/>
-      <c r="D346" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E346" s="48"/>
+      <c r="B346" s="46"/>
+      <c r="C346" s="46"/>
+      <c r="D346" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E346" s="46"/>
       <c r="F346" s="29" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A347" s="48" t="s">
+      <c r="A347" s="46" t="s">
         <v>809</v>
       </c>
-      <c r="B347" s="48"/>
-      <c r="C347" s="48"/>
-      <c r="D347" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E347" s="48"/>
+      <c r="B347" s="46"/>
+      <c r="C347" s="46"/>
+      <c r="D347" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E347" s="46"/>
       <c r="F347" s="29" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A348" s="48" t="s">
+      <c r="A348" s="46" t="s">
         <v>811</v>
       </c>
-      <c r="B348" s="48"/>
-      <c r="C348" s="48"/>
-      <c r="D348" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E348" s="48"/>
+      <c r="B348" s="46"/>
+      <c r="C348" s="46"/>
+      <c r="D348" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E348" s="46"/>
       <c r="F348" s="29" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A349" s="48" t="s">
+      <c r="A349" s="46" t="s">
         <v>813</v>
       </c>
-      <c r="B349" s="48"/>
-      <c r="C349" s="48"/>
-      <c r="D349" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E349" s="48"/>
+      <c r="B349" s="46"/>
+      <c r="C349" s="46"/>
+      <c r="D349" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E349" s="46"/>
       <c r="F349" s="29" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A350" s="48" t="s">
+      <c r="A350" s="46" t="s">
         <v>815</v>
       </c>
-      <c r="B350" s="48"/>
-      <c r="C350" s="48"/>
-      <c r="D350" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E350" s="48"/>
+      <c r="B350" s="46"/>
+      <c r="C350" s="46"/>
+      <c r="D350" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E350" s="46"/>
       <c r="F350" s="29" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A351" s="48" t="s">
+      <c r="A351" s="46" t="s">
         <v>817</v>
       </c>
-      <c r="B351" s="48"/>
-      <c r="C351" s="48"/>
-      <c r="D351" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E351" s="48"/>
+      <c r="B351" s="46"/>
+      <c r="C351" s="46"/>
+      <c r="D351" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E351" s="46"/>
       <c r="F351" s="29" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A352" s="48" t="s">
+      <c r="A352" s="46" t="s">
         <v>819</v>
       </c>
-      <c r="B352" s="48"/>
-      <c r="C352" s="48"/>
-      <c r="D352" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E352" s="48"/>
+      <c r="B352" s="46"/>
+      <c r="C352" s="46"/>
+      <c r="D352" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E352" s="46"/>
       <c r="F352" s="29" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A353" s="48" t="s">
+      <c r="A353" s="46" t="s">
         <v>821</v>
       </c>
-      <c r="B353" s="48"/>
-      <c r="C353" s="48"/>
-      <c r="D353" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E353" s="48"/>
+      <c r="B353" s="46"/>
+      <c r="C353" s="46"/>
+      <c r="D353" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E353" s="46"/>
       <c r="F353" s="29" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A354" s="48" t="s">
+      <c r="A354" s="46" t="s">
         <v>823</v>
       </c>
-      <c r="B354" s="48"/>
-      <c r="C354" s="48"/>
-      <c r="D354" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E354" s="48"/>
+      <c r="B354" s="46"/>
+      <c r="C354" s="46"/>
+      <c r="D354" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E354" s="46"/>
       <c r="F354" s="29" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A355" s="48" t="s">
+      <c r="A355" s="46" t="s">
         <v>825</v>
       </c>
-      <c r="B355" s="48"/>
-      <c r="C355" s="48"/>
-      <c r="D355" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E355" s="48"/>
+      <c r="B355" s="46"/>
+      <c r="C355" s="46"/>
+      <c r="D355" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E355" s="46"/>
       <c r="F355" s="29" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A356" s="48" t="s">
+      <c r="A356" s="46" t="s">
         <v>827</v>
       </c>
-      <c r="B356" s="48"/>
-      <c r="C356" s="48"/>
-      <c r="D356" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E356" s="48"/>
+      <c r="B356" s="46"/>
+      <c r="C356" s="46"/>
+      <c r="D356" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E356" s="46"/>
       <c r="F356" s="29" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A357" s="48" t="s">
+      <c r="A357" s="46" t="s">
         <v>829</v>
       </c>
-      <c r="B357" s="48"/>
-      <c r="C357" s="48"/>
-      <c r="D357" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E357" s="48"/>
+      <c r="B357" s="46"/>
+      <c r="C357" s="46"/>
+      <c r="D357" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E357" s="46"/>
       <c r="F357" s="29" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A358" s="48" t="s">
+      <c r="A358" s="46" t="s">
         <v>831</v>
       </c>
-      <c r="B358" s="48"/>
-      <c r="C358" s="48"/>
-      <c r="D358" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E358" s="48"/>
+      <c r="B358" s="46"/>
+      <c r="C358" s="46"/>
+      <c r="D358" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E358" s="46"/>
       <c r="F358" s="29" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A359" s="48" t="s">
+      <c r="A359" s="46" t="s">
         <v>833</v>
       </c>
-      <c r="B359" s="48"/>
-      <c r="C359" s="48"/>
-      <c r="D359" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E359" s="48"/>
+      <c r="B359" s="46"/>
+      <c r="C359" s="46"/>
+      <c r="D359" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E359" s="46"/>
       <c r="F359" s="29" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A360" s="48" t="s">
+      <c r="A360" s="46" t="s">
         <v>835</v>
       </c>
-      <c r="B360" s="48"/>
-      <c r="C360" s="48"/>
-      <c r="D360" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E360" s="48"/>
+      <c r="B360" s="46"/>
+      <c r="C360" s="46"/>
+      <c r="D360" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E360" s="46"/>
       <c r="F360" s="29" t="s">
         <v>836</v>
       </c>
@@ -19981,6 +19958,706 @@
     </row>
   </sheetData>
   <mergeCells count="710">
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="A181:C181"/>
+    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="A200:C200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="A203:C203"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="D206:E206"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="A216:C216"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A223:C223"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="D228:E228"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="D229:E229"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="D230:E230"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="D231:E231"/>
+    <mergeCell ref="A232:C232"/>
+    <mergeCell ref="D232:E232"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="D233:E233"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="D234:E234"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="A236:C236"/>
+    <mergeCell ref="D236:E236"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="A239:C239"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="A244:C244"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="A246:C246"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="A249:C249"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="A258:C258"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="A260:C260"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="A261:C261"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="D262:E262"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="A264:C264"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="A268:C268"/>
+    <mergeCell ref="D268:E268"/>
+    <mergeCell ref="A269:C269"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="D271:E271"/>
+    <mergeCell ref="A272:C272"/>
+    <mergeCell ref="D272:E272"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="D273:E273"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="D275:E275"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="D277:E277"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="A280:C280"/>
+    <mergeCell ref="D280:E280"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="D281:E281"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="D282:E282"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="D283:E283"/>
+    <mergeCell ref="A284:C284"/>
+    <mergeCell ref="D284:E284"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="D285:E285"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="D286:E286"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="D287:E287"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="D290:E290"/>
+    <mergeCell ref="A291:C291"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="A292:C292"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="D293:E293"/>
+    <mergeCell ref="A294:C294"/>
+    <mergeCell ref="D294:E294"/>
+    <mergeCell ref="A295:C295"/>
+    <mergeCell ref="D295:E295"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="D296:E296"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="D297:E297"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="D298:E298"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="D299:E299"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="D301:E301"/>
+    <mergeCell ref="A302:C302"/>
+    <mergeCell ref="D302:E302"/>
+    <mergeCell ref="A303:C303"/>
+    <mergeCell ref="D303:E303"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="A306:C306"/>
+    <mergeCell ref="D306:E306"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="D307:E307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="D308:E308"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="D309:E309"/>
+    <mergeCell ref="A310:C310"/>
+    <mergeCell ref="D310:E310"/>
+    <mergeCell ref="A311:C311"/>
+    <mergeCell ref="D311:E311"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="D312:E312"/>
+    <mergeCell ref="A313:C313"/>
+    <mergeCell ref="D313:E313"/>
+    <mergeCell ref="A314:C314"/>
+    <mergeCell ref="D314:E314"/>
+    <mergeCell ref="A315:C315"/>
+    <mergeCell ref="D315:E315"/>
+    <mergeCell ref="A316:C316"/>
+    <mergeCell ref="D316:E316"/>
+    <mergeCell ref="A317:C317"/>
+    <mergeCell ref="D317:E317"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="D318:E318"/>
+    <mergeCell ref="A319:C319"/>
+    <mergeCell ref="D319:E319"/>
+    <mergeCell ref="A320:C320"/>
+    <mergeCell ref="D320:E320"/>
+    <mergeCell ref="A321:C321"/>
+    <mergeCell ref="D321:E321"/>
+    <mergeCell ref="A322:C322"/>
+    <mergeCell ref="D322:E322"/>
+    <mergeCell ref="A323:C323"/>
+    <mergeCell ref="D323:E323"/>
+    <mergeCell ref="A324:C324"/>
+    <mergeCell ref="D324:E324"/>
+    <mergeCell ref="A325:C325"/>
+    <mergeCell ref="D325:E325"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="D326:E326"/>
+    <mergeCell ref="A327:C327"/>
+    <mergeCell ref="D327:E327"/>
+    <mergeCell ref="A328:C328"/>
+    <mergeCell ref="D328:E328"/>
+    <mergeCell ref="A329:C329"/>
+    <mergeCell ref="D329:E329"/>
+    <mergeCell ref="A330:C330"/>
+    <mergeCell ref="D330:E330"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="D331:E331"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="D332:E332"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="D333:E333"/>
+    <mergeCell ref="A334:C334"/>
+    <mergeCell ref="D334:E334"/>
+    <mergeCell ref="A335:C335"/>
+    <mergeCell ref="D335:E335"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="D336:E336"/>
+    <mergeCell ref="A337:C337"/>
+    <mergeCell ref="D337:E337"/>
+    <mergeCell ref="A338:C338"/>
+    <mergeCell ref="D338:E338"/>
+    <mergeCell ref="A339:C339"/>
+    <mergeCell ref="D339:E339"/>
+    <mergeCell ref="A340:C340"/>
+    <mergeCell ref="D340:E340"/>
+    <mergeCell ref="A341:C341"/>
+    <mergeCell ref="D341:E341"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="D342:E342"/>
+    <mergeCell ref="A343:C343"/>
+    <mergeCell ref="D343:E343"/>
+    <mergeCell ref="A344:C344"/>
+    <mergeCell ref="D344:E344"/>
+    <mergeCell ref="A345:C345"/>
+    <mergeCell ref="D345:E345"/>
+    <mergeCell ref="A346:C346"/>
+    <mergeCell ref="D346:E346"/>
+    <mergeCell ref="A347:C347"/>
+    <mergeCell ref="D347:E347"/>
+    <mergeCell ref="A348:C348"/>
+    <mergeCell ref="D348:E348"/>
+    <mergeCell ref="A349:C349"/>
+    <mergeCell ref="D349:E349"/>
+    <mergeCell ref="A350:C350"/>
+    <mergeCell ref="D350:E350"/>
+    <mergeCell ref="A351:C351"/>
+    <mergeCell ref="D351:E351"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="D352:E352"/>
+    <mergeCell ref="A353:C353"/>
+    <mergeCell ref="D353:E353"/>
+    <mergeCell ref="A354:C354"/>
+    <mergeCell ref="D354:E354"/>
+    <mergeCell ref="A355:C355"/>
+    <mergeCell ref="D355:E355"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="D356:E356"/>
     <mergeCell ref="A357:C357"/>
@@ -19991,706 +20668,6 @@
     <mergeCell ref="D359:E359"/>
     <mergeCell ref="A360:C360"/>
     <mergeCell ref="D360:E360"/>
-    <mergeCell ref="A351:C351"/>
-    <mergeCell ref="D351:E351"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="D352:E352"/>
-    <mergeCell ref="A353:C353"/>
-    <mergeCell ref="D353:E353"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="D354:E354"/>
-    <mergeCell ref="A355:C355"/>
-    <mergeCell ref="D355:E355"/>
-    <mergeCell ref="A346:C346"/>
-    <mergeCell ref="D346:E346"/>
-    <mergeCell ref="A347:C347"/>
-    <mergeCell ref="D347:E347"/>
-    <mergeCell ref="A348:C348"/>
-    <mergeCell ref="D348:E348"/>
-    <mergeCell ref="A349:C349"/>
-    <mergeCell ref="D349:E349"/>
-    <mergeCell ref="A350:C350"/>
-    <mergeCell ref="D350:E350"/>
-    <mergeCell ref="A341:C341"/>
-    <mergeCell ref="D341:E341"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="D342:E342"/>
-    <mergeCell ref="A343:C343"/>
-    <mergeCell ref="D343:E343"/>
-    <mergeCell ref="A344:C344"/>
-    <mergeCell ref="D344:E344"/>
-    <mergeCell ref="A345:C345"/>
-    <mergeCell ref="D345:E345"/>
-    <mergeCell ref="A336:C336"/>
-    <mergeCell ref="D336:E336"/>
-    <mergeCell ref="A337:C337"/>
-    <mergeCell ref="D337:E337"/>
-    <mergeCell ref="A338:C338"/>
-    <mergeCell ref="D338:E338"/>
-    <mergeCell ref="A339:C339"/>
-    <mergeCell ref="D339:E339"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="D340:E340"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="D331:E331"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="D332:E332"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="D333:E333"/>
-    <mergeCell ref="A334:C334"/>
-    <mergeCell ref="D334:E334"/>
-    <mergeCell ref="A335:C335"/>
-    <mergeCell ref="D335:E335"/>
-    <mergeCell ref="A326:C326"/>
-    <mergeCell ref="D326:E326"/>
-    <mergeCell ref="A327:C327"/>
-    <mergeCell ref="D327:E327"/>
-    <mergeCell ref="A328:C328"/>
-    <mergeCell ref="D328:E328"/>
-    <mergeCell ref="A329:C329"/>
-    <mergeCell ref="D329:E329"/>
-    <mergeCell ref="A330:C330"/>
-    <mergeCell ref="D330:E330"/>
-    <mergeCell ref="A321:C321"/>
-    <mergeCell ref="D321:E321"/>
-    <mergeCell ref="A322:C322"/>
-    <mergeCell ref="D322:E322"/>
-    <mergeCell ref="A323:C323"/>
-    <mergeCell ref="D323:E323"/>
-    <mergeCell ref="A324:C324"/>
-    <mergeCell ref="D324:E324"/>
-    <mergeCell ref="A325:C325"/>
-    <mergeCell ref="D325:E325"/>
-    <mergeCell ref="A316:C316"/>
-    <mergeCell ref="D316:E316"/>
-    <mergeCell ref="A317:C317"/>
-    <mergeCell ref="D317:E317"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="D318:E318"/>
-    <mergeCell ref="A319:C319"/>
-    <mergeCell ref="D319:E319"/>
-    <mergeCell ref="A320:C320"/>
-    <mergeCell ref="D320:E320"/>
-    <mergeCell ref="A311:C311"/>
-    <mergeCell ref="D311:E311"/>
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="D312:E312"/>
-    <mergeCell ref="A313:C313"/>
-    <mergeCell ref="D313:E313"/>
-    <mergeCell ref="A314:C314"/>
-    <mergeCell ref="D314:E314"/>
-    <mergeCell ref="A315:C315"/>
-    <mergeCell ref="D315:E315"/>
-    <mergeCell ref="A306:C306"/>
-    <mergeCell ref="D306:E306"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="D307:E307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="D308:E308"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="D309:E309"/>
-    <mergeCell ref="A310:C310"/>
-    <mergeCell ref="D310:E310"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="D301:E301"/>
-    <mergeCell ref="A302:C302"/>
-    <mergeCell ref="D302:E302"/>
-    <mergeCell ref="A303:C303"/>
-    <mergeCell ref="D303:E303"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="A296:C296"/>
-    <mergeCell ref="D296:E296"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="D297:E297"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="D298:E298"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="D299:E299"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="D300:E300"/>
-    <mergeCell ref="A291:C291"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="A292:C292"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="D293:E293"/>
-    <mergeCell ref="A294:C294"/>
-    <mergeCell ref="D294:E294"/>
-    <mergeCell ref="A295:C295"/>
-    <mergeCell ref="D295:E295"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="D286:E286"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="D287:E287"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="D288:E288"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="D290:E290"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="D281:E281"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="D282:E282"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="D283:E283"/>
-    <mergeCell ref="A284:C284"/>
-    <mergeCell ref="D284:E284"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="D285:E285"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="D277:E277"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="A280:C280"/>
-    <mergeCell ref="D280:E280"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="D271:E271"/>
-    <mergeCell ref="A272:C272"/>
-    <mergeCell ref="D272:E272"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="D273:E273"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="D275:E275"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="A268:C268"/>
-    <mergeCell ref="D268:E268"/>
-    <mergeCell ref="A269:C269"/>
-    <mergeCell ref="D269:E269"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="D270:E270"/>
-    <mergeCell ref="A261:C261"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="A262:C262"/>
-    <mergeCell ref="D262:E262"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="A264:C264"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="A256:C256"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="A258:C258"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="A260:C260"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="D254:E254"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="A246:C246"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="D247:E247"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="A249:C249"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="A244:C244"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="A245:C245"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="A236:C236"/>
-    <mergeCell ref="D236:E236"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="A239:C239"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="D231:E231"/>
-    <mergeCell ref="A232:C232"/>
-    <mergeCell ref="D232:E232"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="D233:E233"/>
-    <mergeCell ref="A234:C234"/>
-    <mergeCell ref="D234:E234"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="D235:E235"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="D228:E228"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="D229:E229"/>
-    <mergeCell ref="A230:C230"/>
-    <mergeCell ref="D230:E230"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A223:C223"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="D224:E224"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="A216:C216"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="D206:E206"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="A203:C203"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="D204:E204"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="D196:E196"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="A200:C200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="A181:C181"/>
-    <mergeCell ref="D181:E181"/>
-    <mergeCell ref="A182:C182"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="D172:E172"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="D173:E173"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="A156:C156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
